--- a/deuChatbot/research_result/table_to_json(3500_0).xlsx
+++ b/deuChatbot/research_result/table_to_json(3500_0).xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:G208"/>
@@ -21046,6 +21046,6869 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 실기시험의 구체적인 내용(주제, 준비물, 시험시간 등)을 포함하지 않고, 실기고사 일정과 지원자의 준비 사항에 대한 정보로 대체되었습니다. 이는 원본 텍스트의 핵심 정보를 누락하고 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 실기시험의 구체적인 세부사항을 제공하는 반면, 생성된 응답은 전혀 다른 정보(일정, 창의적 체험 활동 등)를 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 제공하려고 하지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 실기시험의 구체적인 세부사항이 누락되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 관련성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실적 내용을 정확히 반영하지 않고 있으며, 중요한 세부사항이 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았기 때문에 다차원적 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 제공하려고 하지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 이해도는 다소 낮아질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6739445473030398</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기고사는 주로 시각디자인, 산업디자인, 공예디자인 분야에서 이루어집니다. 실기고사 일정은 2024년 1월 16일(화)에 진행되며, 이는 나군 학생부종합 전형의 일환으로서 실시됩니다.
+실기고사는 지원자의 창의적 체험 활동과 경험을 평가하는 중요한 부분입니다. 따라서 지원자는 다음과 같은 준비를 해야 합니다:
+1. **창의적 체험 활동**: 지원자가 참여한 동아리 활동, 진로활동 등에 대한 자세한 기록을 작성합니다.
+2. **진로 탐색 활동**: 학교 프로그램이나 개인적으로 진행한 진로 탐색 활동의 결과를 정리하여 제출합니다.
+3. **실제 작업 경험**: 지원자가 참여했던 실제 디자인 작업 또는 프로젝트에 대한 설명과 결과물을 준비합니다.
+또한, 실기고사에서는 학교생활기록부 기재자의 주체가 '저는'으로 기재되어야 하며, 학교 밖에서 이뤄진 개인의 구체적 경험과 사례를 학교생활기록부에 기재해야 합니다. 이와 같은 준비를 통해 실기고사에서 좋은 성적을 받을 수 있습니다.
+더 자세한 정보는 [입학안내 홈페이지](http://ipsi. deu. ac. kr/main. do)를 참조하시거나, 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 주제 A와 B의 구체적인 내용이 누락되어 있어 완전한 정확성을 위해서는 5점이 아닌 4점을 부여합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 주제 A와 B의 구체적인 내용이 생략되어 있어 약간의 일관성 부족이 느껴집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기 종목과 준비물, 주제, 화지 크기 및 시간을 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 주제 A와 B의 구체적인 내용이 누락되어 있어 완전한 정확성을 위해 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8506477256019479</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 "기초디자인, 사고의 전환" 중에서 선택하게 됩니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제 A와 B 각각에서 1개씩을 선정하여 연결된 주제를 당일 추첨으로 결정하게 됩니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지 3절 크기가 사용됩니다.
+- **시간**: 시험은 5시간 동안 진행됩니다.
+이러한 준비물과 주제, 화지크기 및 시간을 참고하여 디자인조형학과의 실기를 준비하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 배드민턴과 축구의 인정대회 목록이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 모순되지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "각종국제대회"와 같은 표현이 더 자연스럽게 연결될 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8907015398625431</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>경기지도학과에서 배드민턴(남)과 축구(남)의 모집종목별 인정대회에 대해 설명 드리겠습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 실력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 항목들을 올바르게 나열하고 있습니다. 또한, 추첨 방식에 대한 설명도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 주제와 추첨 방식에 대한 설명이 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다. 모든 정보가 원본 텍스트의 핵심 포인트와 관련되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 표현이 사용되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7882815166247089</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 추첨으로 결정합니다.
+주제A에는 다음과 같은 사물들이 포함되어 있습니다:
+- 잠자리
+- 무궁화
+- 피망 (오렌지)
+- 고양이
+- 양파
+- 달팽이
+주제B에는 다음과 같은 사물들이 포함되어 있습니다:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 저울
+- 얼음
+예시로 주제A와 주제B를 연결하여 추첨으로 결정된 주제는 "잠자리와 저울"일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 점수가 동의대학교 학생부교과 전형에서 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적으로 전형 요소 반영 비율에 대한 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 출결 점수가 반영되지 않는다는 주장을 반복하여 강조하고 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하고 있으며, 주제와 관련된 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있어 유창성이 뛰어납니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 추가적인 정보도 정확하게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 매우 우수하며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7185505915213068</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 전형 요소 반영 비율을 보면, 모든 모집단위에서 출결의 비율은 0%입니다.
+따라서, 출결 점수는 동의대학교 학생부교과 전형에서 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 17명에 대한 정보가 일치합니다. 추가적으로 제공된 웹사이트 정보도 유용합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모집 인원과 전형에 대한 정보가 일치합니다. 추가적인 정보도 원본의 내용을 보완합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.7871444348875322</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2023년도 인문사회과학대학의 국어국문학과에서 가군 일반학생전형인 경우, 정원 내로 17명을 모집합니다. 
+하지만 주의할 점은, 이 정보는 특정 년도에 대한 것이므로, 최신 정보를 확인하기 위해서는 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 관련 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8744409370897638</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8295057213993543</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수를 잘못 제시하고 있습니다. 원본 텍스트에 따르면 4등급의 점수는 115점이며, 생성된 응답에서는 20점으로 잘못 기재되어 있습니다. 이로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 4등급의 점수를 잘못 제시하고 있습니다. 원본의 정보와 상충하는 내용이 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 질문에 답하고 있지만, 제공된 정보가 잘못되어 있어 관련성은 있지만 유용하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 4등급의 점수를 잘못 기재하고 있습니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 질문에 대한 답변을 시도했지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.7619113830135981</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>4등급의 경우, 수능 영어 등급점수는 20점입니다.
+이 점수는 다음과 같이 계산됩니다:
+- 1등급: 50점
+- 2등급: 40점
+- 3등급: 30점
+- 4등급: 20점
+- 5등급: 10점
+따라서 4등급의 수능 영어 등급점수는 20점입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보를 바탕으로 하고 있어 전체적으로 관련성이 떨어집니다. 원문에서의 핵심 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 예술고 학생이 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.652202410391041</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>6년 과정의 경우, 예술고 학생이 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌 지역에 거주한 자라면 지원할 수 있습니다. 12년 과정의 경우, 예술고 학생이 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자라면 지원 가능합니다.
+제출서류는 다음과 같습니다:
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급한 초·중·고등학교 학교생활기록부 각 1부
+따라서 예술고 학생이 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고 거주한 자라면 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 정확하게 반영하고 있습니다. 기록과 배점에 대한 정보는 일치하지만, 추가된 테이블 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관된 정보를 제공하지만, 추가된 테이블 정보는 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 핵심 정보를 잘 전달하고 있습니다. 따라서 관련성 점수는 높게 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 테이블 정보가 약간의 혼란을 줄 수 있어 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성에 약간의 문제가 발생합니다. 따라서 높은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 의미를 약간 왜곡할 수 있어 완벽한 점수는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 추가된 테이블 정보가 약간의 혼란을 줄 수 있어 완벽한 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8675054581475176</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+| 등급 | 제자리 멀리뛰기( cm ) { 남 / 여 / 배점 } | Z-런 { 남 / 여 / 배점 } |
+|------|-----------------------------------------|--------------------------|
+| 4    | 268～271, 218~221, 275                 | 14.80~14.99, 15.70~15.89, 275 |
+여기서 "218~221"은 여자 제자리 멀리뛰기의 기록이며, 이에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 정보를 명확히 제공하지 않고 있으며, 출결 반영 비율이 12%라는 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율을 명확히 제시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있어 일부 관련성은 있지만, 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용이 부적절하여 흐름이 매끄럽지 않은 부분이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 부족합니다. 원본 텍스트의 정보와 관련이 없고, 주제와의 연결이 약해 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있어 일부 적절성은 있지만, 전반적으로는 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 질문과 관련이 없기 때문에 혼란스러울 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5427224745549452</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 경기지도학과에 대한 출결 반영 비율을 확인할 수 없습니다. 다른 학과들에 대한 출결 반영 점수는 있습니다만, 경기지도학과에 대한 특별한 정보가 없네요. 
+더 자세한 정보를 얻으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요. 해당 페이지에서 경기지도학과의 정확한 학부모님 정보를 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원이 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "4명을 모집합니다"라는 정보가 포함되어 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원에 대한 정보를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 물리치료학과에 대한 추가 정보를 요청하고 있지만, 원본 텍스트의 핵심 정보인 모집 인원에 대한 언급이 없기 때문에 관련성이 낮습니다. 그러나 추가 정보 요청은 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 그러나 문장 간의 흐름은 비교적 매끄럽습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 잘못된 정보를 제공합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있습니다. 그러나 추가 정보 요청은 어느 정도 의미가 있으므로 점수를 부여했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7046475598030255</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 "동의대 2024학년도 가군"에서 물리치료학과에 대한 모집 인원이 포함되어 있지 않습니다. 다른 학과들의 모집 인원만 기재되어 있습니다. 
+물리치료학과와 관련된 추가 정보가 필요합니다. 더 자세한 내용을 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5380137374017737</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저기준은 없습니다."라는 사실을 명확히 반영하지 않고 있으며, 오히려 정보가 없다는 점을 강조하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 수능 최저기준이 없다는 점을 명확히 하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 응답은 동의대학교 응용화학과의 수능 최저기준에 대한 질문에 관련된 정보를 제공하고 있으나, 원문에서 명시된 사실을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 설명이 일관되게 이어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 원문에서 제시된 사실을 왜곡하고 있으며, 수능 최저기준이 없다는 점을 정확히 전달하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 어느 정도 적절하지만, 원문과의 불일치로 인해 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5165838618633461</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서에서 명확히 확인할 수 없습니다. 수능 최저기준은 각 학과별로 다를 수 있으며, 해당 페이지에서는 특정 학과의 수능 최저기준을 언급하지 않았습니다.
+만약 동의대학교 응용화학과의 수능 최저기준을 알고 싶다면, 공식 홈페이지 또는 입학처에 문의하시거나, 제공된 문서를 더 자세히 검토해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "경기지도학과"가 신설된 학과로 언급되었지만, 원본 텍스트에는 신설된 학과 목록이 여러 개 포함되어 있습니다. 따라서 응답은 불완전하며, 다른 신설 학과들을 누락하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 전체적인 맥락과 일치하지 않습니다. 원본 텍스트에는 여러 학과가 나열되어 있으나, 응답은 "경기지도학과"만 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있으므로 관련성이 높습니다. 그러나 원본 텍스트의 모든 내용을 반영하지 못해 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 명확한 설명을 제공합니다. 그러나 원본 텍스트의 전체적인 내용을 반영하지 않아 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: "경기지도학과"가 신설된 학과로 언급되었으나, 원본 텍스트에 나열된 다른 학과들을 누락하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 모든 내용을 반영하지 않아 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.4978976846650504</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "경기지도학과"가 있습니다. 이 정보는 제공된 컨텍스트 내에서 확인되었습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 반영 비율을 정확하게 언급하고 있지만, '학생부 교과'와 '출결' 항목이 추가되어 있어 원본 텍스트의 정보와 일치하지 않습니다. 원본 텍스트에는 '학생부 교과'와 '출결'에 대한 언급이 없으므로, 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 추가 정보를 포함하고 있어 일관성이 부족합니다. '학생부 교과'와 '출결' 항목이 원본 텍스트에 없기 때문에, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본 텍스트의 핵심 내용을 흐리게 하고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 중복된 표현이 있어 완벽한 유창성은 아닙니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열되어 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 포함하지 않으며, 잘못된 추가 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보로 인해 의미가 흐려질 수 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있습니다. 그러나 기본적인 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8347474469275951</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 70%
+- 출결: 12%
+- 서류: 70% (이 부분은 서류 평가에서 학생부 교과성적을 포함하고 있음을 유의해야 합니다)
+- 면접: 30%
+따라서, 이 전형에서는 학생부 교과와 서류 평가가 각각 70%를 차지하며, 면접은 30%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과를 언급하고 있으며, 수학(미적분 또는 기하) 응시자에게 가산점을 부여하는 내용을 정확하게 반영하고 있습니다. 그러나 '의료·보건·생활대학'이 누락되어 있어 완전한 정보는 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 공과대학과 ICT융합공과대학에 대한 정보를 제공하지만, 원본 텍스트에 포함된 의료·보건·생활대학을 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 수능 가산점 적용 학과에 대해 직접적으로 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 모든 정보를 포함하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 의료·보건·생활대학을 누락하여 정확성에서 약간의 손실이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 다만, 누락된 정보로 인해 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7938693653968815</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 공과대학과 ICT융합공과대학 모집단위입니다. 이들 학과에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여하고 있습니다.
+따라서, 공과대학과 ICT융합공과대학 모집단위에서 수학(미적분 또는 기하)을 응시한 지원자의 경우에는 수능 점수가 일반적으로 더 높아질 수 있다는 것을 기억해두세요.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 원문 내용을 왜곡하고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 명시하고 있지만, 생성된 응답에서는 각 영역별로 25%씩 반영된다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 수능 성적 반영 방식에 대한 정보가 상충합니다. 원문은 100% 반영이라고 명시하고 있지만, 생성된 응답은 각 영역별로 25%씩 반영된다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하고 있으나, 원문에서 강조한 100% 반영이라는 핵심 내용을 놓치고 있습니다. 그럼에도 불구하고 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 완벽한 유창성 점수를 주기에는 부족합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원문과의 불일치로 인해 논리적 흐름이 약간 깨집니다. 원문과의 연결성이 떨어져 coherence 점수가 낮아졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 수능 성적 반영 방식에 대한 정확한 정보를 제공하지 못하고 있습니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 큰 문제를 보이고 있습니다. 전반적으로 낮은 품질을 나타내므로 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 의미를 전달하고 있으나, 원문과의 불일치로 인해 의미가 왜곡되었습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7448655267275393</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%씩 반영됩니다.
+이러한 방식으로 수능 성적을 평가하여 학생들의 합격 여부를 결정합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과가 제외된다는 사실을 언급하고 있지만, 나머지 학과(디자인조형학과, 체육학과, 경기지도학과)가 제외된다는 내용을 포함하지 않아 사실과 다릅니다. 또한, 수학 응시자에 대한 설명이 추가되었으나, 이는 원문과 관련이 없는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보(수학 응시자에 대한 내용)를 포함하고 있어 일관성이 부족합니다. 원문에서 제외된 학과 목록과 생성된 응답의 내용이 서로 충돌합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 한의예과에 대한 정보를 포함하고 있지만, 나머지 학과에 대한 정보가 누락되어 있어 전체적으로 관련성이 떨어집니다. 수학 응시자에 대한 정보는 원문과 직접적인 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 특히, 수학 응시자에 대한 설명이 원문과의 연관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제외된 학과에 대한 정확한 정보를 제공하지 않으며, 잘못된 정보(수학 응시자에 대한 내용)를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원문과의 관계가 약해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 원문과의 맥락이 맞지 않아 의미 전달이 부족합니다. 특히, 수학 응시자에 대한 정보는 원문과의 관련성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관계가 불명확하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5736848411756262</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형)에서는 "한의예과" 수학(미적분/기하), 수학(확률과통계) 응시자 외에는 전 모집단위에서 수능을 반영합니다.
+따라서, 한의예과 수학(미적분/기하) 응시자는 수학 미적분 또는 기하 부분이 제외되고, 한의예과 수학(확률과통계) 응시자는 수학 확률과 통계 부분이 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 설명이 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8744054751724112</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 수능(일반학생전형)의 경우, "수능최저기준 없음"으로 표시되어 있습니다. 이는 해당 전형에서 수능 점수가 강제적으로 요구되는 기준을 두지 않는 것을 의미합니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에는 여러 학과의 변경 사항이 나열되어 있지만, 생성된 응답은 하나의 학과만 언급하고 있어 다소 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전체적인 맥락에서 여러 학과의 변경 사항을 다루지 않고 있어 일관성이 떨어집니다. 원본 텍스트의 모든 학과 변경 사항을 포함하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 보육가정상담학과의 변경 사항을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있는 부분이 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 명칭 변경에 대한 설명이 명확합니다. 그러나 여러 학과의 변경 사항을 다루지 않기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 변경 사항에 대한 정확한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 다른 학과 변경 사항을 포함하지 않아 정확성 점수가 다소 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 원본 텍스트의 모든 내용을 포함하지 않아 전반적인 품질 점수는 완벽하지 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 모든 학과의 변경 사항을 다루지 않기 때문에 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 그러나 원본 텍스트의 모든 내용을 포함하지 않아 이해 가능성 점수가 완벽하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5425178591083538</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에 따라 학부에서 학과로 분리된 것으로 보입니다.
+상세 내용은 다음과 같습니다:
+- 2023학년도: 보육·가정상담학과
+- 2024학년도: 아동학과
+이와 같이 명칭 변경 및 분류 변경이 이루어졌습니다. 더 자세한 정보는 공식 웹사이트를 참조하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8321047768842388</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷) 마감일은 2024년 1월 6일(토)까지 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 정보가 일부 누락되어 있으며, 특히 학생부종합 평가영역에 대한 설명이 원본 텍스트와 일치하지 않습니다. 원본 텍스트에서 제시된 전형 요소와 비율이 정확히 반영되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 예를 들어, 학생부종합 평가영역의 내용이 원본과 다릅니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 관련된 정보를 제공하고 있으나, 일부 내용이 원본 텍스트와 다르기 때문에 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 원본 텍스트와 다르게 사용되어 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히 전형 요소와 비율에 대한 정보가 잘못 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.8330388375877031</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역**:
+   - 2023년도: 인성, 학업역량, 전공적합성
+   - 2024년도: 공동체역량, 학업역량, 전공적합성
+2. **전형요소 반영비율**:
+   - 2023년도: 실기/실적(경기실적우수자전형): 학생부교과(출결포함)30%+서류(실적)70%
+   - 2024년도: 실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%
+3. **학생부 교과성적 반영방법**:
+   - 2023년도: 반영학기 고교 졸업예정자: 1학년 1학기~3학년 1학기
+                 고교 졸업자: 1학년 1학기~3학년 2학기
+   - 2024년도: 반영학기 고교 졸업(예정)자: 1학년 1학기~3학년 1학기
+이러한 변화가 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(전형명, 모집단위, 전형요소 반영비율 등)도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제인 실기 비중에 대해 직접적으로 관련된 정보를 제공하고 있으며, 추가적인 세부사항도 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7952063051179892</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 "전형요소 반영비율" 항목에서 확인할 수 있습니다.
+상세 내용은 다음과 같습니다:
+- 전형명: 가군 실기/실적(일반학생전형)
+- 모집단위: 레저스포츠학과, 태권도학과
+- 전형요소 반영비율: 학생부 교과 0%, 출결 0%, 서류 0%, 면접 0%, 실기 70%, 수능 30%
+따라서, 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 관련된 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8628053969656995</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세부 전공들은 학생들이 다양한 삶의 질 향상을 위한 지식과 기술을 배울 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "태권도학과"가 언급되었으나, 원본 텍스트에는 "체육학과"와 "레저스포츠학과"만 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 원본 텍스트와 생성된 응답 간에 학과의 일치성이 부족합니다. "태권도학과"는 원본에 없고, "체육학과"는 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, "태권도학과"의 잘못된 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 실기고사에 대한 설명이 명확합니다. 그러나 잘못된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: "태권도학과"라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 중간 정도의 품질을 보이지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 학과 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6310695841553302</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 가군에서 실기고사를 치르게 되는 학과는 **레저스포츠학과**와 **태권도학과**입니다. 이 두 학과에서는 실기고사가 진행될 예정이므로 해당 학과를 지원하는 분들은 실기고사에 참여해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)와는 전혀 다른 학과들이 나열되어 있으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 언급된 학과들은 포함되지 않고, 다른 학과들이 나열되어 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 제공하려고 하지만, 제공된 정보가 원본 텍스트와 관련이 없기 때문에 낮은 점수를 받습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보가 잘못되어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6909638702074148</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '나군'으로 지원 가능한 학과들은 다음과 같습니다:
+1. **공과대학**
+   - 응용화학과
+   - 의생명공학과
+   - 바이오의약공학과
+   - 식품공학과
+   - 인간공학과
+   - 산업경영빅데이터공학과
+2. **ICT융합공과대학**
+   - 컴퓨터공학과  - 교직
+   - 소프트웨어공학부 (컴퓨터소프트웨어공학, 응용소프트웨어공학)
+   - 인공지능학과
+   - 전기공학과  - 교직
+   - 전자공학과  - 교직
+   - 디지털콘텐츠학과
+   - 게임공학과
+   - 소프트웨어융합학과
+3. **예술디자인체육대학**
+   - 음악학과 (클래식, 실용음악, 뉴미디어작곡)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 체육학과  - 교직
+   - 레저스포츠학과
+   - 태권도학과
+   - 경기지도학과  - 신설
+   - 패션디자인학과  - 교직
+4. **공과대학**
+   - 미래형자동차학과 (정원 내 모집 인원 정보가 없음)
+위와 같은 학과들이 실기/실적 위주 전형인 '나군'으로 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8404469916712168</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었으며, 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+따라서 동의대학교 라이프융합학부에서는 위와 같이 세 가지 전공을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 마이스터고에 대한 정보가 잘못 전달되었습니다. 마이스터고는 지원할 수 없다는 점이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일관성을 유지하고 있으나, 마이스터고에 대한 정보가 모순되어 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있으나, 질문의 맥락과는 다소 동떨어진 부분이 있습니다. 질문자는 동의대 일반학생전형에 대한 정보를 요청했으나, 응답은 다른 대학에 대한 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 복잡하여 이해하기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으나, 질문의 맥락과는 다소 차이가 있어 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 일부 정보는 정확하지만, 마이스터고에 대한 정보가 잘못 전달되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이나, 정확성과 일관성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 질문의 맥락과는 다소 어긋나는 부분이 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5747989586607598</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，东国大学的一般学生选拔类型（가군）对特殊目的高中学生的支持资格如下：
+- **가군 수능 (일반학생전형)**:
+  - **고교유형별 지원자격**:
+    - **일반고**: 지원 가능
+    - **자율고**: 지원 가능
+    - **특수목적고**: 
+      - **과학고, 국제고, 외국어고**: 지원 가능
+      - **예술고, 체육고**: 지원 가능
+      - **마이스터고**: 지원 가능
+因此，如果你是特殊目的高中（如科学高中、国际高中等）的学生，你是可以申请东国大学的一般学生选拔类型的。请确认你所在的高中属于上述类别之一。
+如果还有其他疑问或需要进一步的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 동의대 나군 전형에서 가장 많이 모집하는 학과가 중어중국학과와 신소재공학과라고 명시하고 있지만, 생성된 응답에서는 경기지도학과와 라이프융합학부가 언급되며, 이들 학과의 모집 인원도 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과와 모집 인원을 언급하고 있어 일관성이 없습니다. 원본의 정보와 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 답변이 아닌 다른 학과에 대한 정보로 흐르고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성은 있지만, 원본과의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 그러나 일부 내용은 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5430415652287848</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+현재 제공된 정보에서는 경기지도학과와 미래융합대학의 라이프융합학부가 각각 3명, 11명씩 모집하고 있습니다. 
+경기지도학과는 축구(남)와 배드민턴(남) 종목을 모집하며, 미래융합대학의 라이프융합학부는 신설 학부로 다양한 분야를 포함하고 있어 많은 지원자가 관심을 가질 수 있습니다.
+따라서 가장 많이 모집하는 학과는 **미래융합대학의 라이프융합학부**로 보입니다. 이 학부는 신설 학부로서 다양한 전공 선택의 기회가 있으므로 많은 지원자들이 관심을 가질 것으로 예상됩니다.
+만약 더 자세한 정보나 다른 학과에 대한 문의가 있다면 추가로 확인해보겠습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대로 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 담고 있어 일관성이 없습니다. 원문에서는 지원할 수 없다고 명시하고 있는데, 생성된 응답은 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있으나, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만, 잘못된 방향으로 진행되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류는 없습니다. 그러나 내용의 정확성이 떨어지므로 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 불일치로 인해 응답의 일관성이 저하되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두에서 심각한 문제가 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 질문에 대한 답변을 시도하고 있으나, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬운 구조로 되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5472923341145157</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 '나군' 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 그러나 지원 자격에 대한 추가 정보를 확인해야 합니다.
+특히, '추가내용 참조'라는 문구는 해당 모집단위에서 특수목적고등학교 학생에게 적용되는 특정 조건이나 제한 사항이 있을 가능성을 의미합니다. 따라서, 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 대학 입학처에 직접 문의하여 정확한 지원 자격을 확인하시기 바랍니다.
+추가로, 지원 자격과 관련된 모든 정보는 변경될 수 있으므로, 최신 정보를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 부족하여 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 관계에서 전반적으로 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 구체적인 성적 정보를 제시하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편입니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6123519734686992</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+- 영어 등급의 평균: 3.30
+- 수능 4개 영역 등급의 평균: 4.12
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 450.71
+이러한 정보를 바탕으로 소프트웨어공학부의 합격자들의 평균 성적을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부에 대한 데이터가 없다는 점을 언급하고 있으며, 원본 텍스트의 주장을 대체로 반영하고 있습니다. 그러나 "다른 전형이나 단과대학의 정보만이 포함되어 있습니다"라는 부분은 원본 텍스트에 명시되어 있지 않은 정보로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, "다른 전형이나 단과대학의 정보만이 포함되어 있습니다"라는 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보에는"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 추가 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주장을 대체로 정확하게 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되지만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7238477128396351</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 전형이나 단과대학의 정보만이 포함되어 있습니다. 더 자세한 정보를 원하신다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트에 있는 '최초 합격자 등록' 일정이 추가되어 있으며, '가&gt;군, 나&gt;군, 다&gt;군'이라는 표현이 사용되어 있습니다. 이로 인해 일부 정보가 왜곡되거나 추가된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하는 부분이 있지만, '가&gt;군, 나&gt;군, 다&gt;군'이라는 표현이 추가되어 있어 일관성이 떨어집니다. 또한, 등록금 납부와 관련된 정보가 포함되어 있어 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 추가적인 세부사항이 포함되어 있어 원본 텍스트의 핵심 주제와 약간의 차이가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 일정이 명확하게 나열되어 있습니다. 그러나 '가&gt;군, 나&gt;군, 다&gt;군'이라는 표현이 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보로 인해 정확성이 떨어집니다. 특히, 등록금 납부와 관련된 내용은 원본 텍스트에 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 정보의 왜곡과 추가로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보로 인해 의미가 약간 왜곡되었습니다. '가&gt;군, 나&gt;군, 다&gt;군'이라는 표현은 원본 텍스트의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 표현이 복잡하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8266542936198847</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **가&gt;군, 나&gt;군, 다&gt;군 최초 합격자 발표 및 등록금 납부**:
+   - **일정**: 2024년 2월 2일(금) 14:00
+   - **비고**: 
+     - *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재된 정보를 확인해주세요).
+2. **가&gt;군, 나&gt;군, 다&gt;군 최초 합격자 등록**:
+   - **일정**: 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+     - *은행 마감 시간 내에 납부해주세요*.
+이후에도 추가 합격자 발표와 등록이 진행되며, 각각의 일정은 다음과 같습니다:
+- **가&gt;군, 나&gt;군, 다&gt;군 충원 합격자 1차 발표 및 등록**:
+  - **일정**: 2024년 2월 14일(수) 09:00 ~ 16:00
+- **가&gt;군, 나&gt;군, 다&gt;군 충원 합격자 2차 발표 및 등록**:
+  - **일정**: 2024년 2월 15일(목) 09:00 ~ 16:00
+- **가&gt;군, 나&gt;군, 다&gt;군 충원 합격자 3차 이후 발표 및 등록**:
+  - **일정**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+    - *개별 전화 통보 시 안내가 제공됩니다*.
+이상의 일정을 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차에 대한 설명만 포함하고 있습니다. 원본 텍스트에서 명시된 면접고사 일정인 2024년 1월 20일이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접고사 일정에 대한 구체적인 언급이 없고 일반적인 절차에 대한 설명으로 대체되었습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 핵심 정보인 면접고사 일정에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트의 정보와 관련이 적어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 관련이 적어 전체적인 일관성이 떨어집니다. 면접고사 일정에 대한 정보가 없기 때문에 응답의 일관성이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접고사 일정에 대한 구체적인 사실이 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적으로 적절성은 있지만, 원본의 맥락을 충분히 반영하지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 문장이 명확하게 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 부족하여 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3293173257549309</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>면접고사는 일반적으로 서류평가 후에 이루어집니다. 정확한 날짜와 시간은 입학사정관실에서 안내를 받으셔야 합니다. 따라서 서류평가 결과가 나왔을 때, 해당 학교의 입학사정관실이나 공지사항을 확인하시거나, 직접 연락하여 면접일정에 대한 정보를 얻는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문해 보시는 것을 추천드립니다. 해당 사이트에서 최신 정보와 안내를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "제공된 정보에서 확인할 수 없습니다"라는 표현은 다소 모호하게 느껴질 수 있습니다. 따라서 완전한 정확성은 없지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하는 부분이 있지만, "제공된 정보에서 확인할 수 없습니다"라는 문구는 원문과의 일관성을 약간 떨어뜨립니다. 원문은 명확하게 최저학력 기준이 없다고 명시하고 있기 때문입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문과 관련된 정보를 제공하고 있으며, 추가적인 정보 출처를 안내하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제시된 사실을 잘 반영하고 있지만, "제공된 정보에서 확인할 수 없습니다"라는 표현이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하고 있습니다. 다만, 약간의 모호함이 있어 완전한 적절성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 그러나 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.566056613297527</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 한의예과에 대한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다. 추가적인 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 대학 관계자에게 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 명확한 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5543481682574269</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 정시전형의 경우 모든 모집단위에서 수능최저학력기준이 없습니다. 
+따라서, 정시 전형으로 지원할 때 수능 최저학력 기준을 충족해야 하는 것은 아닙니다.
+만약 더 자세한 정보가 필요하다면, 해당 대학의 공식 웹사이트를 방문하여 최신 정보를 확인해 보세요. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 정확하게 반영하고 있습니다. 그러나 "이후에 추가적인 충원합격자는 개별 전화 통보를 통해 안내될 예정입니다."라는 문장은 원본 텍스트에 포함되어 있지 않은 정보로, 이로 인해 약간의 부정확성이 발생합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에 없는 내용이 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 저하되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 추가된 정보로 인해 일부 차원에서 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본 텍스트와의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9180448538078995</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+이후에 추가적인 충원합격자는 개별 전화 통보를 통해 안내될 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하는 대신, 추가합격자 발표일에 대한 정보가 없다고 잘못 언급하고 있습니다. 원본 텍스트에는 명확한 발표 일정이 포함되어 있으므로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 구체적인 날짜와 시간을 제공하는 반면, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 정보는 무시되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원본 텍스트의 정보와 관련이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 정보를 제대로 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 주제와 관련이 적은 정보를 제공합니다. 그러나 추가합격자 발표일에 대한 일반적인 정보는 포함되어 있어 약간의 적절성을 보입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3462024183699122</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표일에 대한 명시가 없습니다. 추가합격자 발표일은 일반적으로 대학의 입학처 웹사이트나 공지사항을 통해 공지됩니다. 따라서 "https://ipsi.deu.ac.kr/main.do" 링크를 참고하시거나, 해당 대학의 입학처 웹사이트에서 최신 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집이 특정 단과대학이나 모집단위에서만 확인되었다고 언급하고 있지만, 원문에서는 정시모집의 결원에 대해 추가 합격자를 선발한다고 명시하고 있습니다. 따라서 일부 사실이 누락되거나 왜곡된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 추가 모집이 일반적으로 이루어지지 않는다고 언급하여 원문의 내용과 다소 상충하는 부분이 있습니다. 원문은 추가 모집이 가능하다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가 모집에 대한 정보를 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 특정 학과에 대한 예시가 포함되어 있어 원문에서 다루고 있는 일반적인 내용과는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 특정 예시가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 내용을 정확히 반영하지 못하고 있으며, 추가 모집에 대한 정보가 다소 왜곡되어 있습니다. 원문에서는 추가 모집이 가능하다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 특정 학과에 대한 언급이 원문과의 일관성을 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.530562376572825</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 추가 모집은 특정 단과대학이나 모집단위에서만 확인되었습니다. 예를 들어, "상경대학"의 "유통물류학과"는 "4 이내"로 최대선발 가능인원이 제시되어 있습니다.
+하지만 일반적으로 추가모집을 하는 것은 아니며, 특정 학과나 모집단위에서만 가능한 경우가 있습니다. 만약 추가모집에 대한 자세한 정보를 원하신다면, 해당 대학의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 관계자에게 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 다른 전형에 대한 내용을 포함하고 있으며, 지원 자격과 모집 단과대학에 대한 정보가 잘못된 부분이 있습니다. 
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 많아 일관성이 부족합니다. 특히, 지원 자격과 모집 단위에 대한 설명이 원본과 다릅니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 관련이 적고, 다른 전형에 대한 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3  
+   - 응답의 구조는 비교적 잘 짜여져 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 많아 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 어느 정도 적절하지만, 원본 텍스트와의 불일치로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5939264733939607</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 다양한 학력과 경력을 가진 성인 학생들을 대상으로 하는 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. **지원 자격**: 
+   - 산업체 적용 범위는 국가·지방자치단체 및 공공단체, 근로기준법에 따른 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 등이 있습니다. 군 의무복무 경력도 재직기간으로 인정됩니다.
+2. **모집 단과대학 및 계열**: 
+   - 예를 들어, 상경대학 인문사회계열에는 유통물류학과, 경영학과(교직), 회계학과(교직), 국제관광경영학과(교직) 등이 모집되고 있습니다.
+3. **최대 선발 가능인원**: 
+   - 각 모집단위별로 최대 선발 가능한 인원 수가 제한되어 있으며, 예를 들어 유통물류학과는 4명 이내입니다.
+4. **제출 서류**:
+   - 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자는 각각의 학력 증빙서류를 제출해야 합니다.
+   - 지원 자격 증명서류와 함께 학교생활기록부를 제출해야 하며, 이는 서류평가의 중요한 부분입니다.
+5. **전형 요소 반영 비율**:
+   - 서류 평가와 면접 평가가 각각 70%와 30%로 반영됩니다.
+   - 학업역량과 전공적합성, 공동체역량 등이 평가 영역으로 포함되어 있습니다.
+6. **동점자 처리 기준**:
+   - 동점자가 발생할 경우, 면접고사 성적이 높은 자를 우선 선발합니다.
+   - 그 다음으로는 서류평가에서 공동체역량 영역의 성적이 높은 자를 선발합니다.
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 궁금하신 점이 있으시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 전체적인 이해는 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6645001464964017</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 대기실 및 입실시간에 대한 정보를 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대기실 및 입실시간에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기고사에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.7518103532316692</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2024년 나군 실기고사의 경우, 각 모집단위별로 대기실 및 입실시간 안내가 제공됩니다. 이 정보는 2024년 1월 12일 금요일 오후 14시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사는 해당 모집단위의 대기실로 가셔야 합니다. 구체적인 장소와 시간은 입학안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 포함하고 있으며, 입학안내 홈페이지에서 확인할 수 있다는 점도 정확하게 반영하고 있습니다. 그러나 "해당 학과에 지정된 장소에서 진행됩니다."라는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "해당 학과에 지정된 장소에서 진행됩니다."라는 추가 정보는 원문에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 실기고사에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대체로 정확하지만, 원문에 없는 정보를 포함하고 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가된 정보가 원문에 없기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 약간의 혼란을 줄 수 있는 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.6289318753422258</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 해당 학과에 지정된 장소에서 진행됩니다. 정확한 장소는 입학안내 홈페이지를 통해 2024년 1월 12일 금요일 오후 14시 이후에 안내받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 사실을 잘못 전달하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시되어 있지만, 생성된 응답에서는 개별 전화 통보를 받을 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시되어 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 포함하고 있지만, 잘못된 정보를 바탕으로 하고 있어 전체적으로 관련성이 떨어집니다. 원문에서 강조하는 내용과는 다르게 전화 통보에 대한 잘못된 주장을 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실관계가 잘못되어 있습니다. 전화 통보가 이루어진다고 언급한 부분은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 부분이 많습니다. 전화 통보에 대한 잘못된 주장은 원문의 의도와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6530832256051738</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인해야 합니다. 이후에 입학관리팀에서 전화로 안내를 드릴 수 있습니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있습니다. 다만, 언어가 다르기 때문에 일관성의 측면에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 정보를 제공하는 링크를 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어 사용자에게는 중국어로 작성되어 있어 유창성의 측면에서 약간의 제한이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 언어의 차이로 인해 한국어 사용자에게는 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성도 높습니다. 다만, 언어의 차이로 인해 한국어 사용자에게는 다소 불편할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 언어의 차이로 인해 일부 사용자는 이해하는 데 어려움을 겪을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 한국어 사용자에게는 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 이해 가능성 점수는 다소 낮습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7094106298240103</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到关于2023学年警察行政学系的自主招生结果。根据提供的上下文，主要描述了各个专业的招生类型、录取人数等信息，并没有包含具体的招生结果数据。
+如果您需要了解2023学年警察行政学系的具体招生结果，请访问以下网站以获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室，他们能够提供最准确的招生结果信息。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과는 다른 의미를 전달하고 있으며, 문맥에 맞지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4763832883292068</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시에 수능을 응시하지 않아도 일부 전형에서 지원할 수 있습니다. 예를 들어, 농어촌학생전형과 평생학습자전형, 성인학습자전형, 재직자전형 등에서는 고교 졸업(예정)자나 검정고시 출신자, 외국고교 졸업(예정)자를 대상으로 하고 있습니다. 이러한 전형들은 수능을 응시하지 않아도 지원이 가능합니다.
+특히 농어촌학생전형에서는 6년 과정과 12년 과정에 따라 다음과 같은 자격요건을 충족해야 합니다:
+- 6년 과정: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자로서, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자
+- 12년 과정: 농어촌(읍·면)지역 소재 초·중·고등학교에서 전 교육과정을 이수하고, 거주한 자
+이와 같이 수능 응시 여부와 관계없이 지원할 수 있는 전형들이 있으므로, 관심 있는 전형에 대한 자세한 정보를 확인하시기 바랍니다. 더 궁금하신 점이 있다면 https://ipsi.deu.ac.kr/main.do 에서 자세히 알아보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 지원이 어렵다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있으나, 생성된 응답은 10년이 지난 경우 지원이 힘들다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 정보를 제공하고 있으나, 원문과는 다른 내용을 포함하고 있어 다소 관련성이 떨어집니다. 그러나 여전히 정시 지원에 대한 정보를 다루고 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상반된 정보를 포함하고 있어 정확성이 낮습니다. 원문은 정시 지원이 가능하다고 명시하고 있으나, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 두드러지며, 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락을 어느 정도 반영하고 있으나, 원문과의 의미적 불일치로 인해 적절성이 떨어집니다. 원문의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5958844818951305</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 고등학교 졸업 후 10년이 지났다면 일반적으로 정시 모집에 지원하기는 어려울 것으로 보입니다. 정시 모집은 주로 고등학교 졸업생을 대상으로 하며, 성인학습자 전형과 같은 특별한 전형을 제외하고는 10년 이상 경과한 경우 지원이 힘들 수 있습니다.
+만약 특정 단과대학이나 학과에서 정시 모집에 참여하는 경우에는 해당 단과대학의 홈페이지나 입학처에 연락하여 자세히 문의해보시는 것이 좋습니다. 입학 전형 및 지원 자격 등은 각 단과대학마다 다소 차이가 있으므로, 최신 정보를 확인하시기 바랍니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조하거나, 해당 대학의 입학처에 문의해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 일정과 세부 사항을 잘 반영하고 있으나, 일부 세부 사항이 생략되거나 간략화되어 있습니다. 예를 들어, 원서접수 마감 시간에 대한 구체적인 언급이 없고, 서류 제출 방법에 대한 설명이 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 일부 세부 사항이 생략되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 모든 주요 일정이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 일정이 잘 연결되어 있습니다. 그러나 일부 세부 사항의 생략으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 일부 세부 사항이 생략되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부 사항의 생략으로 인해 완전한 품질은 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 세부 사항의 생략으로 인해 의미 전달이 완전하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있으나, 일부 생략된 정보로 인해 완전한 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7809482258217209</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고가 됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수하며, 마감 시간은 각각의 모집단위별로 다릅니다. 
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과와 태권도학과에서 실시되며, 일정은 2024년 1월 16일 (화)입니다.
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과와 체육학과에서 실시되며, 일정은 2024년 1월 17일 (수)입니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수)부터 13일 (화)
+   - 충원 합격자 발표 및 등록: 2차는 14일 (수), 3차는 15일 (목)이며, 각각의 일정은 동일합니다.
+7. **개별 전화 통보**: 2024년 2월 15일 (목) 19시부터 20일 (화)까지 합격자 발표 및 등록이 이루어집니다.
+위와 같은 일정을 참고하시면 됩니다. 자세한 내용은 입학안내 홈페이지를 확인해보세요. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8561378896285212</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수하며, 마감 시간은 각각의 모집단위에 따라 다릅니다. 원서 접수는 입학안내 홈페이지 또는 uwayapply.com에서 진행됩니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출하며, 마감 시간은 17시까지입니다. 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 4시 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 4시 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시에 홈페이지에서 개별 조회 가능합니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지 입학관리팀 지정은행에서 납부가 가능하며, 이 기간 내에 고지서를 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 충원 합격자 발표 및 등록: 
+     - 1차 충원 합격자 발표: 2024년 2월 14일(수) 오전 9시에 홈페이지에서 개별 조회 가능합니다.
+     - 1차 충원 합격자 등록: 2024년 2월 14일(수) 오전 9시부터 오후 4시까지 입학관리팀 지정은행에서 납부가 가능하며, 이 기간 내에 고지서를 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - 2차 충원 합격자 발표 및 등록: 
+       - 2차 충원 합격자 발표: 2024년 2월 15일(목) 오전 9시에 홈페이지에서 개별 조회 가능합니다.
+       - 2차 충원 합격자 등록: 2024년 2월 15일(목) 오전 9시부터 오후 4시까지 입학관리팀 지정은행에서 납부가 가능하며, 이 기간 내에 고지서를 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - 3차 이후 충원 합격자 발표 및 등록: 
+       - 3차 이후 충원 합격자 발표: 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지 홈페이지에서 개별 조회 가능합니다.
+       - 3차 이후 충원 합격자 등록: 개별 전화 통보 시 안내됩니다.
+이상과 같이 동의대학교 정시 모집 일정을 설명하였습니다. 자세한 내용은 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 완전히 무시하고 있으며, 잘못된 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 언급하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전반적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명을 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 그러나 각 전형에 대한 설명은 비교적 명확하게 제시되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 완전히 무시하고 있으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6627786349906253</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 "학생부종합전형(조기취업형계약학과전형)"입니다. 이 전형에서는 학생부와 실기/실적을 기반으로 평가하므로, 수능 점수가 없는 학생들도 지원이 가능합니다.
+특히, "나군 실기/실적(경기실적우수자전형)"과 "나군 실기/실적(조기취업형계약학과전형)"은 경기 실적을 기반으로 평가하므로 수능 미응시자도 지원이 가능합니다. 
+"나군 실기/실적(경기실적우수자전형)"에서는 배드민턴이나 축구 등의 스포츠 실력을 평가받습니다.
+"나군 실기/실적(조기취업형계약학과전형)"에서는 학생부와 경기 실적을 종합적으로 평가합니다. 이 전형은 수능 점수가 없는 학생들도 지원이 가능하며, 경기 실적이 우수한 학생들을 선발합니다.
+따라서, 수능 미응시자도 지원 가능한 동의대학교 정시 모집 전형은 "학생부종합전형(조기취업형계약학과전형)"입니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없다고 언급하고 있지만, 원문에서는 36명까지 이루어졌다고 명확히 언급하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있으며, 충원 합격 차수에 대한 정보가 없다고 하면서도 원문에서 제공된 36명이라는 정보와 모순됩니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있으며, 추가적인 정보 제공을 시도하고 있습니다. 그러나 원문에서 명시된 36명이라는 구체적인 사실을 언급하지 않아 약간의 관련성 부족이 있습니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 사실(36명)을 누락하고 있으며, 이로 인해 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 일관성에서 부족함이 있어 종합 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 구체적인 사실을 누락하여 약간의 부적절함이 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원문과의 연결이 약간 부족하여 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7400664788705803</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없습니다. 전형요소 반영비율이나 모집인원, 사정 단계 등 관련 정보만이 포함되어 있습니다. 전년도 전자공학과의 충원 합격 차수를 확인하려면 대학 입학처 웹사이트나 공식 안내서를 참조하시거나 "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻으시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호에 대한 정보는 무시하고, 웹사이트를 참조하라는 내용을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 전화번호와 관련이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 전화번호에 대한 언급이 없고, 웹사이트를 참조하라는 내용으로 전환되면서 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있습니다. 전화번호가 명시되어 있음에도 불구하고 이를 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 전화번호에 대한 언급이 없고, 정보가 왜곡되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하지만, 원본 텍스트와의 관련성이 떨어져서 이해하는 데 혼란을 줄 수 있습니다. 그러나 문장 자체는 이해하기 쉽습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6482113438119236</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 추가로 필요한 정보가 있다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시거나, 직접 동의대학교 입학처에 연락하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우의 처리 방법에 대해 언급하고 있지만, 원본 텍스트에서 명시된 '등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다'는 중요한 사실을 누락하고 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있으나, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 다소 다릅니다. 원본 텍스트의 내용과 일치하지 않는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 전화 통화가 되지 않는 경우의 처리 방법에 대해 설명하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 등록 포기 처리에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우의 처리 방법에 대한 정보를 제공하지만, 원본 텍스트의 중요한 사실인 등록 포기 처리에 대한 내용을 누락하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 유창성과 관련성은 좋지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 중요한 사실이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6657314093592005</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 다음과 같이 처리됩니다:
+1. **재통보**: 초기에 전화 통화가 되지 않았다면, 다시 전화를 걸어 확인합니다.
+2. **메시지 발송**: 전화 통화가 불가능한 경우에는 메시지를 보내고, 그 후에 홈페이지에서 합격자 발표를 확인하도록 안내합니다.
+이러한 절차를 통해 합격자에게 최종 결과를 알리는 것을 목표로 합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 중복되어 나타나고 있어 완전한 정확성을 보장하지는 않는다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 서류의 중복 언급과 같은 불일치가 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 필요한 서류에 대한 정보를 명확하게 제시하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요하다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 체계적으로 나열되어 있어 이해하기 쉽다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 대체로 정확하게 반영하고 있으나, 일부 세부사항에서 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으나, 일부 세부사항에서 개선이 필요하다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 부적절함이 느껴질 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.8149831100988933</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본 각 1부** (총 3부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+이 외에 추가로 제출해야 할 서류는 다음과 같습니다:
+- **6년 과정의 경우**
+  - 중학교 학교생활기록부 (1부)
+  - 고등학교 학교생활기록부 (1부)
+- **12년 과정의 경우**
+  - 초등학교 학교생활기록부 (1부)
+**추가로 제출해야 할 서류는 다음과 같습니다:**
+- **6년 과정의 경우**
+  - 지원자 본인의 가족관계증명서 (1부)
+  - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+  - 중학교 학교생활기록부 (1부)
+  - 고등학교 학교생활기록부 (1부)
+- **12년 과정의 경우**
+  - 지원자 본인의 주민등록초본 (1부)
+  - 초등학교 학교생활기록부 (1부)
+  - 중학교 학교생활기록부 (1부)
+  - 고등학교 학교생활기록부 (1부)
+**최종 등록자에게 추가로 제출해야 할 서류는 다음과 같습니다:**
+- **6년 과정의 경우**
+  - 고교 졸업증명서
+  - 지원자 본인, 부모의 초본 각 1부 (총 3부)
+- **12년 과정의 경우**
+  - 고교 졸업증명서
+  - 지원자 본인의 초본 1부
+이러한 서류들을 정확하게 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류 목록과 그 목적에 대한 설명이 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 목록과 그 설명이 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 서류의 나열과 설명이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8538601489373434</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 지원자의 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주하였음을 증명하기 위함입니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 기회균등 전형에 대한 정보가 없다고 언급하고 있지만, 원문에서는 기회균등 전형이 존재하지 않는다고 명확히 설명하고 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 그에 대한 언급이 없고 다른 전형에 대한 정보로 혼동을 주고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 다루고 있는 기회균등 전형에 대한 질문과 관련이 적습니다. 원문은 특정 전형의 존재 여부에 대한 질문에 대한 답변을 제공하고 있지만, 생성된 응답은 다른 전형에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다. 또한, 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 논리적 연결이 부족합니다. 원문에서 다루고 있는 주제와는 다른 내용으로 구성되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 기회균등 전형이 존재하지 않는다는 사실을 무시하고 다른 전형에 대한 정보로 대체하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 거의 없으며, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문에서 다루고 있는 주제와는 전혀 다른 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 또한, 언어가 한국어가 아닌 중국어로 되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.4473498860367713</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到关于普通招生中的低收入机会均等类型是否进行选拔。根据给定的信息，似乎主要关注的是针对特定类型的特殊招生计划（如农村学生、终身学习者、在职人员等）。如果您想了解有关低收入家庭学生的选拔情况，请访问以下网站以获取更多信息：https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에서 사탐 2 과목의 평균산출 시 2.5등급이 절사되지 않는다고 주장하고 있지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 언급된 정보의 부재를 무시하고 구체적인 절사 기준을 제시하고 있습니다. 이는 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 내용을 왜곡하여 제시하고 있습니다. 그러나 여전히 수능 최저등급과 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있으며, 정확한 정보를 제공하지 못하고 있습니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.7310305461313561</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>4등급을 기준으로 한 수능 최저등급에서 사탐 2과목의 평균산출은 2.5등급이 나오더라도 절사하여 3등급으로 처리하지 않습니다. 즉, 2.5등급은 그대로 2.5등급으로 보는 것입니다.
+만약 특정 모집단위에서 사탐 2과목의 평균산출을 실시하고 있고, 이 경우 2.5등급이 나오더라도 절사하지 않고 그대로 평균점수로 인정합니다. 따라서 2.5등급은 2.5등급으로 처리됩니다.
+만약 더 자세한 정보가 필요하시다면 해당 모집단위의 수능 전형성적 산출방법을 확인해보시는 것이 좋습니다. 만약 문서에서 명확히 언급되지 않았다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 3차까지 이루어진다는 사실을 정확하게 반영하고 있으며, 각 발표 날짜도 올바르게 언급하고 있습니다. 그러나 "세 번째 충원은 2024년 2월 15일(목)부터 20일까지"라는 표현은 3차 발표가 2월 15일에 시작되지만, 3차 이후 발표는 2월 20일까지 개별 전화 통보로 진행된다는 점에서 약간의 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 발표 일정과 방식에 대한 설명이 일치하지만, 세 번째 발표에 대한 설명이 약간 모호하게 표현되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "같은 날인"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 순차적으로 설명되고 있습니다. 그러나 세 번째 발표에 대한 설명이 약간 모호하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 세 번째 발표에 대한 설명이 다소 혼동을 줄 수 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 약간의 모호함이 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 세 번째 발표에 대한 설명이 다소 모호하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 세 번째 발표에 대한 설명이 약간 혼란스러울 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7925964430316955</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 첫 번째 충원은 2024년 2월 14일(수)에 발표되며, 두 번째 충원은 같은 날인 2024년 2월 15일(목)에 다시 발표됩니다. 마지막으로 세 번째 충원은 2024년 2월 15일(목)부터 20일까지 개별 전화 통보를 통해 이루어집니다.
+따라서 정시 충원 합격자 발표는 총 3차로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 수능 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 점수와 관련된 구체적인 수치나 조건을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되거나 정확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 최저 기준에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 특정 수치에 대한 설명에 중점을 두고 있으나, 생성된 응답은 다른 방향으로 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 전형에 대한 정보를 제공하고 있어 관련성이 높지만, 원본 텍스트의 주요 내용인 평균 점수와 충원 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 최저 기준에 대한 정보가 포함되어 있지만, 원본 텍스트에서 제공된 평균 점수와 관련된 구체적인 수치가 누락되어 있어 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부사항을 놓치고 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 문장이 복잡하게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5933979222352748</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, e비즈니스학과의 경우 모집단위가 "상경대학 인문사회"이며, 해당 모집단위는 수능 위주의 전형입니다. 수능 위주 전형에서는 수능 성적이 핵심적인 역할을 합니다.
+다군 수능(일반학생전형)의 수능 반영방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급 점수 + 탐구 표준점수
+따라서 e비즈니스학과에 지원하려면, 해당 모집단위의 수능 최저 기준을 충족해야 합니다. 2024년도 현재의 정보로는 수능 최저기준이 명시되어 있지 않으므로, 정확한 수능 최저 기준을 확인하기 위해서는 대학 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.
+만약 4.6 등급이 수능 영어 등급 점수로 변환되어 최저 기준을 충족한다면, 추가 합격 가능성은 있습니다. 하지만 이는 최저 기준만 충족하는 경우이며, 다른 평가 요소들도 고려되기 때문에 확실한 것은 아닙니다.
+따라서 정확한 답변을 위해서는 대학 홈페이지를 확인하거나, 학교 관계자에게 직접 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 관련된 정보를 제공하지만, 중어중국학과의 데이터를 포함하여 비교하는 방식이 원본 텍스트의 내용과는 다소 다릅니다. 원본 텍스트는 e비즈니스학과에 대한 직접적인 정보를 제공하고 있으며, 생성된 응답은 다른 학과의 데이터를 참조하여 결론을 도출하고 있습니다. 이로 인해 일부 사실이 왜곡될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 중어중국학과의 데이터를 추가하여 비교하는 방식이 일관성을 떨어뜨립니다. 원본 텍스트는 e비즈니스학과에 대한 직접적인 정보를 제공하는 반면, 생성된 응답은 다른 학과의 정보를 포함하여 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 답하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 중어중국학과의 데이터를 포함함으로써 주제에서 약간 벗어나는 경향이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어져서 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 중어중국학과의 데이터와 e비즈니스학과의 데이터를 비교하는 방식이 논리적 흐름을 방해합니다. 정보가 잘 연결되지 않아 일관된 주제를 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 점수와 관련된 정보를 제공하지만, 중어중국학과의 데이터를 포함하여 정확성을 떨어뜨립니다. 원본 텍스트의 핵심 정보를 왜곡할 수 있는 요소가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 일관성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 중어중국학과의 데이터를 포함함으로써 의미의 적절성이 약간 저하됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 양이 많아 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6600385398777703</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과에 대한 최초합격 가능성을 판단하기 위해서는 해당 학과의 지원자들의 평균 점수와 표준 편차를 고려해야 합니다. 
+e비즈니스학과에 대한 정보가 제공되지 않았으므로, 인문사회과학대학 내 다른 학과의 데이터를 참고하겠습니다.
+예를 들어, 중어중국학과의 경우, 지원자들의 수능 4개 영역 (가산점 포함) 표준 변환 점수 평균이 395.63이고, 표준 편차는 12.03입니다. 이와 비교하여 판단해보겠습니다.
+- 중어중국학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 평균: 395.63
+- 중어중국학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 표준 편차: 12.03
+정시 등급 5.3에 해당하는 점수를 계산해보겠습니다.
+**등급별 점수 변환표 참조**
+- 등급 5: 수능 최저점수 107
+- 등급 6: 수능 최저점수 99
+- 등급 7: 수능 최저점수 91
+- 등급 8: 수능 최저점수 83
+- 등급 9: 수능 최저점수 75
+등급 5.3을 계산하면, 평균 점수가 102.65이고, 표준 편차가 4.5입니다.
+**예상 점수 변환**
+- 평균 점수: (107 + 99) / 2 = 103
+- 표준 편차: (107 - 99) / 2 = 4
+따라서, 정시 등급 5.3에 해당하는 수능 4개 영역 (가산점 포함) 표준 변환 점수는 평균 103이고, 표준 편차는 4입니다.
+**e비즈니스학과의 경우**
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 평균: 429.60
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 표준 편차: 2.58
+**분석**
+- 중어중국학과의 경우, 평균 점수가 395.63이고, 표준 편차는 12.03입니다.
+- e비즈니스학과의 경우, 평균 점수가 429.60이고, 표준 편차는 2.58입니다.
+정시 등급 5.3에 해당하는 점수 (평균 103)가 중어중국학과의 수능 점수보다 높지만, e비즈니스학과의 수능 점수 평균을 크게 밑돌고 있습니다.
+따라서, 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 매우 낮다고 판단할 수 있습니다. 그러나 실제 지원자의 성적 분포와 경쟁률 등을 고려해야 하므로, 확실한 결론을 내리기 위해서는 더 많은 정보를 참고해야 합니다.
+더 자세한 정보나 추가 질문이 있으시다면, 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 38번의 합격 가능성에 대한 확답을 어렵다고 언급하고 있지만, 원문에서는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하는 부분도 있지만, 예비 38번의 가능성을 낮게 평가하는 원문의 주장을 약간 모호하게 표현하고 있습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 38번의 합격 가능성에 대한 추가적인 정보를 제공하고 있지만, 원문에서 제시된 핵심 정보에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 약간 떨어져 있어 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제시된 사실을 완전히 반영하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 판단을 피하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원문과의 일치성 및 정확성에서 부족함이 있어 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 대체로 일치하지만, 예비 38번의 합격 가능성에 대한 명확한 판단을 피하고 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.6832802638928418</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 이정도의 점수로는 e비즈니스학과 전공을 신청하는 데서 예비합격이 가능한지 확답하기 어렵습니다. 이유는 다음과 같습니다:
+1. **전형 유형**: 나군 수능(일반학생전형) 또는 나군 학생부종합(성인학습자전형, 재직자전형 등)에 따라 달라집니다.
+2. **모집 단위 및 인원**: e비즈니스학과의 모집단위와 인원을 확인해야 합니다.
+3. **수능 최저 기준**: 수능 최저기준이 없지만, 실제 수능 점수가 합격에 큰 영향을 미칩니다.
+4. **학생부 및 서류 평가**: 학생부 교과성적, 면접 성적 등도 고려됩니다.
+따라서, 정확한 예비합격 가능성 판단을 위해서는:
+- e비즈니스학과의 모집단위와 인원을 확인합니다.
+- 나군 수능(일반학생전형) 또는 나군 학생부종합(성인학습자전형, 재직자전형 등)에 따른 전형요소 반영 비율을 확인합니다.
+- 실제 수능 점수와 학생부 교과성적 등을 종합적으로 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 문의전화로 상세히 문의하시는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 평균 표준 변환 점수에 대한 정보를 제공하지만, 원본 텍스트의 주요 사실인 간호학과의 평균 등급과 관련된 정보는 포함되어 있지 않습니다. 또한, "현재 성적인 3.44는 이 수치에 비해 낮습니다"라는 주장은 원본 텍스트의 내용을 정확히 반영하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하는 정보를 제공하지만, 경쟁률과 평균 점수에 대한 언급이 원본 텍스트의 내용과 충돌할 수 있습니다. 특히, 성적이 낮다는 주장은 원본 텍스트의 맥락과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 부족합니다. 그럼에도 불구하고, 합격 가능성에 대한 다양한 요소를 언급하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽고 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 합격 가능성에 대한 다양한 요소를 체계적으로 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실을 반영하지 않거나 왜곡된 정보를 제공하고 있습니다. 특히, 성적에 대한 해석이 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 맥락을 완전히 반영하지는 못하고 있습니다. 그럼에도 불구하고, 주제에 대한 적절한 논의를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5649413814249119</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 평균 표준 변환 점수 합은 357.63입니다. 현재 성적인 3.44는 이 수치에 비해 낮습니다.
+하지만 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. 지원 인원이 많지 않다면 경쟁률이 낮아질 수 있습니다.
+2. 개인의 특성이나 기타 평가 항목(예: 실기, 자소서 등)이 우수하다면 합격 가능성은 높아질 수 있습니다.
+따라서 현재 성적만으로는 확실한 결론을 내리기는 어렵습니다. 추가 정보를 수집하고 전문가의 조언을 구하는 것이 좋겠습니다. 더 자세한 분석이나 지원 전략에 대한 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 평균 영어 등급이 2.34이고, 수능 4개 영역 등급 평균이 3.37이라고 명시되어 있으며, 현재 정시 등급이 2.52라면 합격 가능성이 높다고 언급하고 있습니다. 그러나 생성된 응답에서는 2.52가 낮다고 판단하고 있으며, 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 2.52가 평균 등급보다 높다고 하였으나, 생성된 응답에서는 이를 반대로 해석하여 낮다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보가 왜곡되어 있습니다. 그럼에도 불구하고, 지원자에게 유용한 조언을 포함하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있으나, 주제와의 관련성이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 합격 가능성에 대한 판단이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치가 많아 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 합격 가능성에 대한 해석이 잘못되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 내용이 원본과 다르게 해석되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.648172738818569</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 최고 경쟁률은 6.59이며, 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 357.63입니다.
+당신의 성적인 2.52는 간호학과의 최저 경쟁률 및 평균 점수와 비교해보면 상당히 낮습니다. 이에 따라 최종 합격 가능성은 매우 낮다고 판단할 수 있습니다.
+하지만, 정시 모집에서 합격 여부는 단순한 성적뿐만 아니라 지원자의 전반적인 자질과 능력, 그리고 입학사정관의 평가 등 다양한 요소를 고려하기 때문에 완전히 배제할 수는 없습니다. 
+추천되는 조치로는:
+1. 동의대학교 간호학과에 대한 추가 정보 수집
+2. 다른 대학이나 학과의 정보 확인 및 지원 계획 세우기
+3. 필요하다면 입학사정관 제출 자료 준비
+이런 점들을 고려하여 결정하시길 바랍니다. 더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 3.7이 간호학과의 평균 등급보다 낮다고 언급하고 있지만, 실제로는 평균 등급이 3.37이므로 3.7은 평균보다 높은 성적입니다. 따라서 이 부분에서 사실과 다릅니다. 또한, 학생부 교과 성적과 면접 성적의 중요성을 언급했지만, 원문에서 제공된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 불확실성을 언급하고 있으며, 이는 원문과 일치하는 부분입니다. 그러나 정시 성적이 평균보다 높다는 점에서 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원할 때 고려해야 할 요소들에 대해 설명하고 있으며, 이는 원문과 관련이 있습니다. 그러나 원문에서 제공된 구체적인 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적에 대한 정보가 부정확하여 정확성 점수가 낮습니다. 3.7이 평균보다 높은 성적임에도 불구하고 낮은 성적이라고 언급한 부분이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실성과 일관성에서 문제가 있으며, 정확성 또한 낮습니다. 그러나 유창성과 일관성은 상대적으로 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 정보가 원문과 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6149921494953484</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만 간호학과는 일반적으로 중등 교육 기간 동안의 학업 성적이 중요한 요소로 작용합니다.
+2024년도 전형요소 반영비율을 보면, 대부분의 전형에서는 학생부교과성적이나 서류가 큰 비중을 차지하고 있습니다. 예를 들어, "학생부종합(조기취업형계약학과전형)"은 서류 60%와 면접 40%로 구성되어 있으며, 이는 학생의 학업 성적을 고려하는 것을 보여줍니다.
+따라서, 정시 성적이 3.7이라면, 간호학과에 지원할 때는 다음과 같은 점들을 주의해야 합니다:
+1. **학생부 교과성적**: 이 부분이 큰 비중을 차지하므로, 학생부 교과성적을 잘 준비하고 보완하는 것이 중요합니다.
+2. **면접 성적**: 면접에서도 자신의 열정과 간호에 대한 이해를 잘 전달해야 합니다.
+또한, 정시 성적이 3.7이라면, 일부 학교에서는 이 성적도 충분히 고려할 수 있으므로, 해당 학교의 최저 기준을 확인하고 지원하는 것이 좋습니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 영어 등급 평균이 1.86이라는 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, 모집 인원, 지원 인원, 경쟁률 등의 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(모집 인원, 지원 인원 등)는 원본 텍스트와 일관성이 없습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 간호학과의 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 일부 추가 정보가 질문의 핵심과는 다소 관련이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성 점수가 낮아졌습니다. 특히 영어 등급 평균에 대한 정보는 확인할 수 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 유창성과 관련성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 다소 부족함이 있어 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용으로 구성되어 있습니다. 그러나 일부 추가 정보가 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6244080227326191</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로 분석해보겠습니다.
+간호학과는 2024학년도에 다음과 같은 특징을 가지고 있습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이고, 영어 등급의 평균은 1.86입니다.
+당신이 정시 성적이 2.58이라면, 이는 영어 등급에서 보통보다 높은 점수를 받았음을 의미합니다. 그러나 간호학과의 경우, 지원 인원이 많고 경쟁률이 높아서 단순히 국어 + 수학 + 탐구(2개) 성적만으로 합격하기는 어려울 것으로 예상됩니다.
+영어 등급 평균 1.86을 고려하면, 당신의 영어 점수가 2.58이라면 이는 상당히 높은 점수로, 이 점수를 바탕으로 합격 가능성은 향상될 수 있습니다.
+하지만 정확한 합격 여부는 실제 모집 결과와 지원자의 전체 성적을 고려해야 합니다. 따라서 최종 결정을 내리기 위해서는 동의대학교 간호학과의 정시 모집 결과를 확인하는 것이 좋습니다. 또한, 다른 전형(예: 특성화고 졸업자 전형 등)도 고려해보시는 것을 추천드립니다.
+더 자세한 정보나 도움이 필요하시다면 https://ipsi. deu. ac. kr/main. do를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 7번의 합격 가능성에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 가능성이 있다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 반대로 가능성이 있다고 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 7번에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보와는 다소 동떨어져 있습니다. 그러나 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 예비 7번의 합격 가능성에 대한 주장을 하면서 원본 텍스트의 내용을 충분히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 예비 7번의 합격 가능성에 대한 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않지만, 관련된 주제를 다루고 있어 중간 정도의 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6613144147241201</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 모집인원에 대한 정보를 확인해보겠습니다. 제공된 정보 중에서 게임공학과의 정원 내 모집 인원은 40명입니다.
+다군에서 일반 학생이 3명 모집되어 있습니다. 따라서 현재까지 붙을 수 있는 인원은 7명입니다 (40 - 3 = 37, 37 + 1 = 38, 38 + 1 = 39, 39 + 1 = 40).
+따라서 7번 학생이 게임공학과에 붙을 수 있는 가능성은 있습니다. 하지만 최종 결정은 입학전형 결과 발표일까지 유지될 수 있으므로, 정확한 정보는 입학전형 결과 발표를 기다려보시는 것이 좋습니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적과 관련된 평균 점수 및 표준 편차에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(4.78)과 비교할 때 잘못된 정보를 포함하고 있습니다. 또한, 추가 합격 가능성에 대한 예측이 원본 텍스트의 내용과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 평균 점수와 관련된 수치가 다르며, 추가 합격 가능성에 대한 판단이 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적과 관련된 정보를 제공하고 있으며, 게임공학과의 경쟁률에 대한 정보도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관성이 떨어지는 부분이 있습니다. 특히, 경쟁률과 추가 합격 가능성에 대한 설명이 서로 연결되지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 평균 점수와 관련된 수치가 잘못되었습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 일부 정보가 부정확하여 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6016597965177473</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 모집인원은 3명이며, 지원 인원은 89명입니다. 따라서 경쟁률은 약 29.7명 대 1로 매우 높습니다.
+당신이 수능 성적이 4.16이라면, 평균 점수와 비교해보면 다음과 같습니다:
+- 평균: 4.38
+- 표준 편차: 0.29
+당신의 점수가 평균보다 약간 낮습니다. 그러나 표준 편차를 고려하면, 당신의 성적이 평균보다는 상대적으로 높은 수준입니다.
+하지만 정시 전형으로 지원하는 경우, 경쟁률이 매우 높기 때문에 추가 합격이 가능할 확률은 낮습니다. 게임공학과는 인기 있는 학과로, 많은 지원자가 있습니다.
+추가적으로, 동의대학교 게임공학과의 충원 합격자는 3명으로 제한되어 있으므로, 경쟁률이 매우 높아 추가 합격 가능성은 낮습니다. 
+따라서, 정시 전형으로 지원하는 경우 추가 합격이 가능할 확률은 낮다고 판단됩니다. 다른 대학이나 학과를 고려해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균이 2.88인데 반해, 생성된 응답에서는 3.88로 잘못 기재되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영어 등급 평균에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 또한, 성적 비교 부분에서 평균 점수와의 비교가 명확하지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 경영정보학과의 최초등록자와 관련된 정보를 제공하며, 원본 텍스트의 주제와 잘 연결되어 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 일부 정보의 흐름이 매끄럽지 않아 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균에 대한 잘못된 정보로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 잘못된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7614109309250264</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과에 대한 정보를 제공해 드리겠습니다.
+1. **수능 영역 등급**:
+   - 국어: 3.75 (등급 6)
+   - 수학: 3.75 (등급 6)
+2. **최초합격자 정보**:
+   - 경영정보학과의 최초합격자는 다음과 같습니다.
+     - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 303.44
+     - 영어 등급 평균: 3.88
+3. **성적 비교**:
+   - 국어: 3.75 (등급 6) vs 303.44 (평균)
+   - 수학: 3.75 (등급 6) vs 303.44 (평균)
+4. **결론**:
+   - 현재 제공된 성적(국어, 수학 각각 3.75 등급 6)은 최초합격자 평균 점수와 비슷하거나 약간 낮습니다.
+   - 하지만 최초합격자의 절대적인 기준을 넘어서는 것은 아니므로, 가능성이 있습니다.
+따라서, 현재의 성적으로 경영정보학과에 최초등록자가 되는 것은 가능하지만, 경쟁률이 높아 확실한 보장은 아닙니다. 추가적으로 면접이나 서류 등 다른 요소를 잘 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적이 4.2일 때 최초등록자가 가능한지에 대한 확정적인 답변을 제공하지 않으며, 모집요강을 확인해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급과 합격 가능성에 대한 정보는 언급되지 않았습니다. 따라서 일부 사실은 반영되었으나, 원본의 핵심 정보를 충분히 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 합격 가능성에 대한 구체적인 수치를 제공하지 않아 일관성이 떨어집니다. 원본의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적과 최초등록자 가능성에 대한 질문에 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 정보를 포함하지 않아 다소 부족한 점이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 질문에 대해 정확한 정보를 제공하지 않으며, 원본 텍스트의 평균 등급과 합격 가능성에 대한 구체적인 수치를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본의 구체적인 수치와 정보를 포함하지 않아 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6829814148321266</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 성적이 4.2일 때 최초등록자가 가능한지 확정적으로 답변하기 어렵습니다. 경영정보학과에 대한 모집요강을 확인해야 합니다.
+특히, 다음과 같은 요소들을 확인해 보세요:
+1. **모집단위와 모집인원**: 해당 단과대학 및 계열의 모집인원이 얼마나 되는지 확인하세요.
+2. **지원 인원과 경쟁률**: 지원자가 몇 명인지, 그리고 그 중에서 최초등록자로 선발될 확률을 파악해 보세요.
+3. **최소 합격 기준 점수**: 해당 단과대학 및 계열의 최소 합격 기준 점수가 얼마인지 확인하세요.
+만약에 경영정보학과가 정원 내에서 모집하고 있고, 지원 인원이 많지 않다면 최초등록자로 선발될 가능성이 높을 수 있습니다. 하지만 이는 단순히 성적이 4.2일 때의 예측이며, 실제 합격 여부는 여러 요소가 복합적으로 작용하기 때문에 정확한 답변은 모집요강과 지원 자료를 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 모집요강을 확인하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용을 대체로 반영하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과 비교하여 합격 가능성이 낮다는 명확한 결론을 피하고, 여러 요인을 고려해야 한다고 언급함으로써 다소 모호한 답변을 제공합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 여러 요인을 고려해야 한다고 설명하고 있습니다. 그러나 원본 텍스트에서 제시된 합격 가능성이 낮다는 점을 명확히 반영하지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 모든 정보가 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확히 설명하고 있습니다. 그러나 일부 문장이 더 매끄럽게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으며, 추가적인 정보와 고려사항을 제시하고 있습니다. 그러나 원본 텍스트의 결론을 명확히 반영하지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다. 다만, 원본 텍스트의 결론을 명확히 반영하지 않아 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.622018529001373</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적이 5.33인 경우 합격이 가능한지 확정적으로 답변하기 어렵습니다. 이유는 다음과 같습니다:
+1. **모집단위와 모집인원**: 동의대학교 경영정보학과의 정확한 모집단위와 모집인원을 확인해야 합니다.
+2. **최종합격자 정보**: 2024년도 동의대학교 경영정보학과 일반학생전형의 최종 합격자들의 성적 분포를 확인해야 합니다. 이는 해당 대학 홈페이지나 입학처에서 확인할 수 있습니다.
+3. **경쟁률**: 현재 지원자의 성적이 평균적인 경쟁률을 고려한 경우에만 합격 가능성을 판단할 수 있습니다.
+4. **기타 요인**: 학생부 종합, 면접 등 다른 평가 항목의 점수도 중요합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 경영정보학과 일반학생전형에 대한 최신 정보를 확인하시거나, 해당 대학 입학처에 문의하시는 것이 좋습니다. 더 자세한 정보를 얻기 위해 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 전형과 관련된 정보를 제공하고 있으며, 성적 3.33에 대한 평가도 포함되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 바이오응용공학부의 전형에 대한 정보를 제공하지만, 최초등록자에 대한 조건이 명확히 언급되지 않아 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 바이오응용공학부에 지원하는 방법과 성적에 대한 평가를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 주제를 잘 설명하고 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 제공된 정보에 기반하여 성적 3.33에 대한 평가를 잘 반영하고 있습니다. 그러나 최초등록자에 대한 조건이 명확히 언급되지 않아 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다. 그러나 일부 정보의 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 다만, 최초등록자에 대한 언급이 부족하여 의미 전달이 완전하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7184831867474548</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하려면, 학생부 교과성적을 반영하는 전형이 주요합니다. 현재 제공된 정보를 바탕으로, 바이오응용공학부는 "학생부종합(조기취업형계약학과전형)"이라는 전형이 있습니다.
+"학생부종합(조기취업형계약학과전형)"의 경우, 2024년도에는 학생부 교과성적과 면접 성적이 반영됩니다. 구체적으로는 서류(학생부)가 60%와 면접이 40%를 차지합니다.
+현재의 성적인 3.33은 학생부 교과성적에서 좋은 점수로 평가될 수 있습니다. 그러나 바이오응용공학부는 "최초등록자"라는 조건을 제시하지 않았습니다. 따라서, 성적이 3.33 정도라면, 합격 가능성은 있으나 확실한 것은 아닙니다.
+결론적으로, 성적 3.33 정도로 바이오응용공학부에 지원하는 것은 가능합니다만, 최종 합격 여부는 전형 요소 반영 비율과 면접 성적 등 다양한 요인에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급(3.82)보다 낮은 4.4의 등급으로 합격 가능성이 낮다는 점을 간과하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원 절차에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 평균 등급과 합격 가능성에 대한 정보와 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 정보와 절차를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 지원 절차에 대한 단계별 설명이 명확합니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원 절차를 제공하지만, 평균 등급에 대한 정확한 정보가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 의미를 잘 전달하고 있으며, 관련된 정보가 적절하게 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.664050803655672</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률을 고려해야 합니다. 방사선학과는 전반적으로 높은 경쟁률을 보이고 있습니다.
+방사선학과의 모집인원과 지원 인원, 그리고 평균 점수를 확인해보면 다음과 같은 정보가 있습니다:
+- **모집인원**: 4명 이내
+- **지원인원**: 여러 곳에서 지원이 이루어지므로 정확한 수치는 제공되지 않지만 많은 지원자가 있을 것으로 예상됩니다.
+- **평균 점수**: 각 모집단위별로 평균점수가 다르기 때문에 특정 단과대학의 평균 점수를 확인해야 합니다.
+4.4의 등급을 가지고 방사선학과에 지원하려면 다음과 같은 절차를 따르세요:
+1. **모집단위 확인**: 방사선학과가 모집하는 단과대학 및 계열을 확인합니다.
+2. **성적 분석**: 해당 단과대학의 평균 점수와 비교하여 자신의 위치를 파악합니다.
+3. **추천서 및 자기소개서 작성**: 필요하다면 추천서나 자기소개서를 준비하고 작성합니다.
+이 정보만으로는 확정적인 답변을 드릴 수 없으므로, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보와 자세한 지원 절차를 확인하시기 바랍니다. 또한, 학교 관계자에게 직접 문의하거나 상담받는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 방사선학과에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용을 반박하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 정보가 없다고 주장하는 것은 사실과 다릅니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현을 사용하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6094800304991037</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 방사선학과에 대한 자세한 내용이 없습니다. 현재의 정보는 주로 학과 분리, 학과 명칭 변경, 전형 요소 반영 비율 등에 관한 것이며 방사선학과와 직접 관련이 없습니다.
+방사선학과에 지원하려면 해당 학과의 정시 모집군과 수능 최저 기준 등을 확인해야 합니다. 제공된 정보에서 방사선학과의 정시 모집군이나 수능 최저 기준 등은 언급되어 있지 않습니다.
+따라서, 방사선학과에 대한 정확한 정보를 얻기 위해서는 대학의 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 대학의 공식 웹사이트를 방문하여 더 자세한 정보를 확인할 수 있습니다.
+만약 방사선학과에 대한 추가 질문이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 성적에 대한 합격 가능성을 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 성적 4.12와 경쟁률이 낮아진 점을 고려할 때, 응답은 다소 부정적인 시각을 제시하고 있습니다. 원본 텍스트의 긍정적인 요소를 충분히 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 합격 가능성을 판단하기 위해 추가적인 요소를 강조하면서 원본의 긍정적인 요소를 간과하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 성적과 관련된 정보를 제공하고 있으며, 합격 가능성을 판단하기 위한 여러 요소를 제시하고 있습니다. 그러나 원본 텍스트의 핵심 포인트인 평균 성적과 경쟁률에 대한 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트의 긍정적인 요소를 충분히 반영하지 못해 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 다소 상충하는 부분이 있으며, 특히 합격 가능성에 대한 판단이 원본의 긍정적인 요소를 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 긍정적인 요소를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 상황에 적절한 의미를 전달하고 있으며, 관련된 정보를 제공합니다. 그러나 원본 텍스트의 긍정적인 요소를 간과한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 전반적으로 명확한 정보 전달이 이루어졌습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5002927840403512</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하시려는 의도를 이해합니다. 하지만 정시 성적이 단순히 3.66이라는 정보만으로는 합격 가능성을 판단하기 어렵습니다.
+정시 학업역량 평가 영역에서의 점수 기준은 다음과 같습니다:
+- 1등급: 240점
+- 2등급: 222점
+- 3등급: 204점
+- 4등급: 186점
+- 5등급: 168점
+이 기준을 보면, 3.66의 성적은 학업역량 평가 영역에서 어느 등급에 해당할지는 모릅니다. 따라서 합격 가능성을 판단하기 위해서는:
+1. 정확한 성적과 등급을 확인해야 합니다.
+2. 지원자의 학교생활기록부 내용이 중요합니다. 협력능력, 행동특성 등이 높다면 긍정적으로 평가될 수 있습니다.
+3. 면접에서도 학업역량과 전공적합성을 잘 보여줘야 합니다.
+따라서, 정확한 성적과 학교생활기록부 내용을 확인하고, 면접 준비를 철저히 하시는 것이 중요합니다. 또한, 입학사정관의 평가도 중요한 요소이므로, 지원자의 전체적인 경쟁력을 고려해야 합니다.
+더 자세한 정보나 도움이 필요하시다면, "https://ipsi.deu.ac.kr/main.do"를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자에 대한 경쟁이 치열하다고 언급하고 있지만, 원문에서 제공된 특정 학과에 대한 정보는 누락되어 있습니다. 또한, 수능 위주 전형에 대한 언급이 있지만, 원문에서는 합격 확률이 학과에 따라 달라질 수 있다고 명시하고 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 예비 25번의 합격자에 대한 구체적인 학과 정보를 제공하지 않아 일관성이 떨어집니다. 원문에서는 특정 학과에 대한 합격 가능성을 언급하고 있으나, 생성된 응답은 일반적인 정보로 대체하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 질문한 합격 가능성에 대한 정보를 제공하려고 하지만, 원문에서 제시된 특정 학과 목록을 언급하지 않아 다소 관련성이 떨어집니다. 그러나 수능 점수와 관련된 정보는 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 위주 전형에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락에 맞는 의미를 전달하고 있지만, 특정 학과에 대한 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.569040090669128</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 경쟁이 매우 치열할 것입니다. 현재 제공된 정보만으로는 정확한 확률을 계산하기 어렵습니다. 하지만 수능 위주 전형인 경우, 수능 점수와 학생부 교과 성적 등이 중요한 평가 요소입니다.
+정시 일반학생전형의 경우, 수능 최저 기준 없음이라는 정보를 보면, 수능 점수가 매우 중요할 것입니다. 따라서 수능 점수를 높게 맞추는 것이 가장 좋은 방법일 것 같습니다.
+또한, 학생부 교과 성적이나 출결 등이 평가 요소로 포함되지 않는다는 점을 고려하면, 수능 점수가 주요 평가 기준이라는 것을 다시 한 번 확인해 보세요. 
+만약 더 자세한 정보나 조언이 필요하다면, 해당 대학의 입시 홈페이지를 참조하거나, 입시 상담 센터에 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 설명하고 있습니다. 또한, 경찰행정학과에 대한 평균 성적 정보가 제공되었으나, 생성된 응답에서는 이를 무시하고 다른 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과의 성적 정보를 제공하고 있지만, 생성된 응답은 법경찰행정학부에 대한 전형요소와 수능최저기준에 대한 정보로 대체하고 있습니다. 이는 원본의 내용을 왜곡하는 결과를 초래합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 법경찰행정학부에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보인 경찰행정학과의 성적 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히 법경찰행정학부에 대한 정보가 부족하여 응답의 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 법경찰행정학부에 대한 잘못된 정보와 해석을 포함하고 있습니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트와의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 법경찰행정학부에 대한 정보가 부족하여 의미 전달이 제한적입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 관련성이 떨어져 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7008611475330948</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부에 정시로 지원하려면, 전형요소 반영비율과 수능최저기준을 고려해야 합니다. 하지만 제공된 정보에는 법경찰행정학부에 대한 구체적인 전형요소 반영비율이나 수능최저기준이 포함되어 있지 않습니다.
+법경찰행정학부의 경우, 대부분의 학과는 '수능 위주' 또는 '학생부교과'로 모집되며, 각 전형별로 평균 성적을 받는 것이 안정권에 들어가는 것은 어렵습니다. 대신 다음과 같은 요소들을 고려해야 합니다:
+1. **전형요소 반영비율**: 수능 위주인 경우 수능 점수가 중요하며, 학생부교과인 경우에는 학업성적과 활동성적이 중요합니다.
+2. **수능최저기준**: 대부분의 전형에서 수능 최저 기준이 설정되어 있습니다.
+따라서 법경찰행정학부에 정시로 지원하려면, 해당 학과의 전형요소 반영비율과 수능최저기준을 확인해야 합니다. 제공된 정보를 바탕으로 추정하면, 대부분의 경우 수능 최저 기준 점수를 받는 것이 안정권에 들어가는 것은 가능할 것입니다.
+**추천 조치:**
+1. 동의대학교 법경찰행정학부의 공식 홈페이지(https://ipsi. deu.ac.kr/main.do)를 방문하여 해당 학과의 정시 모집 전형요소 반영비율과 수능최저기준을 확인하세요.
+2. 최근 몇 년간의 입학성적 분석 자료도 참고하면 도움이 될 것입니다.
+위 정보를 바탕으로, 법경찰행정학부에 정시로 지원하려는 경우, 해당 학과의 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다는 사실을 언급하고 있지만, 경쟁률과 충원 합격 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 또한, 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 추가된 정보(경쟁률, 충원 합격 인원 등)로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트의 주요 사실과는 다소 다른 방향으로 전개되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보(경쟁률, 충원 합격 인원 등)를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실(영어 등급 평균, 수능 4개 영역 등급 평균 등)이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 작성되었으나, 원본 텍스트의 주요 사실이 누락되어 있어 다차원적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부사항이 누락되어 있어 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5655534318045321</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 지원 자료를 바탕으로 분석해보겠습니다.
+보육가정상담학과는 아동학과로 변경되었으며, 해당 학과의 경쟁률과 충원 합격 인원을 고려하면 다음과 같은 점들을 주목해야 합니다:
+1. **경쟁률**: 2024년 보육가정상담학과의 경쟁률은 6.59입니다.
+2. **충원 합격 인원**: 충원 합격 인원은 37명으로, 지원 인원이 145명이라는 점을 고려하면 경쟁률이 높습니다.
+당신의 정시 산출 등급이 5.33인 경우, 이는 평균 수능 등급보다 약간 낮은 수준입니다. 그러나 동의대학교의 경우, 수능 최저 기준이 없으므로, 수능 점수만으로 합격 가능성은 있습니다.
+**국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 357.63이고, 당신의 등급이 5.33이라면 이 점수를 기반으로 충분한 점수를 얻을 수 있을 것입니다.
+**영어 등급**: 평균 1.86입니다. 당신의 영어 등급이 2.0 이상이라면, 이 부분에서도 경쟁력을 갖추고 있습니다.
+따라서, 정시 산출 등급이 5.33인 경우, 동의대학교 보육가정상담학과에 합격할 수 있을 것으로 예상됩니다. 그러나 최종 합격 여부는 여러 요소를 고려해야 하므로, 공식 합격 결과 확인을 위해 대학 입학처와 직접 문의하는 것이 좋습니다.
+더 궁금한 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성이 낮다고 주장하지만, 원본 텍스트에서는 가능성이 있다고 언급하고 있어 일관성이 부족합니다. 두 텍스트 간의 정보가 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 예비 12번에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성에 대한 정보가 원본 텍스트와 다르게 해석되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 왜곡되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7640523453421227</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 매우 낮습니다. 일반적으로 예비 등록자는 최종 합격자에 포함되지 않으며, 합격 가능성은 최종 등록자에게 집중됩니다.
+만약 최종 합격자가 부족한 경우, 충원 합격자 3차에서 예비 등록자를 최종 합격자로 전환하는 기회가 있을 수 있지만, 이는 매우 드문 상황입니다. 따라서 현재의 예비 12번 상태에서는 합격 가능성은 낮다고 판단할 수 있습니다.
+추가 정보를 얻기 위해서는 동의대학교 입학관리팀에 직접 문의하거나, 해당 대회의 홈페이지에서 최신 공지사항을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명시하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 했으나, 생성된 응답에서는 가능하다고 언급하고 있어 일관성이 부족합니다. 따라서 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 구체적인 데이터와 비교할 때 일부 정보가 부족하므로 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으므로 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 유리하다고 하지만, 원본 텍스트에서는 지원하기 어려운 성적이라고 명시하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 의미를 잘 전달하고 있으며, 맥락에 적합합니다. 그러나 원본의 구체적인 사실과는 다소 차이가 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 내용이 원본과 상충하여 혼란을 줄 수 있으므로 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.6651055655036995</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시에서 유아교육학과에 지원하는 것은 가능하지만, 경쟁이 매우 치열하므로 어려울 수 있습니다.
+유아교육학과의 경우, 학업역량 외에도 인성 및 교육적 역량 등 다양한 요소가 평가되므로 단순히 성적이 높다고 해서 무난하게 합격할 수는 없습니다. 특히 유아교육 분야에서는 실제 경험과 실무 능력이 중요하기 때문에, 서류평가와 면접에서도 좋은 결과를 얻기 위한 준비가 필요합니다.
+4.75라는 성적은 좋은 성적입니다만, 유아교육학과의 특성상 학업역량 외에도 다양한 요소들이 평가되므로, 다음과 같은 점들을 고려해보세요:
+1. **서류평가**: 학생부와 자기소개서 등에서 실제 경험을 잘 반영하고, 교육적 역량을 보여줄 수 있는 내용을 작성해야 합니다.
+2. **면접평가**: 면접에서도 유아교육에 대한 열정과 이해도를 잘 표현할 수 있도록 준비해야 합니다.
+이런 점들을 고려하면 4.75라는 성적은 유리한 위치에 있지만, 여전히 경쟁이 치열하므로 철저한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 수능 4개 영역 평균이 3.12로 언급되었으나, 원본 텍스트에서는 7.08로 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 경쟁률이 6.59로 언급되었으나, 원본 텍스트에는 경쟁률에 대한 정보가 없습니다. 이러한 이유로 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 수능 4개 영역 평균과 생성된 응답의 수치가 상이하며, 경쟁률에 대한 정보도 원본 텍스트에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와는 다르기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 수치와 정보가 원본 텍스트와 일치하지 않기 때문에 정확성 점수는 낮습니다. 특히 수능 4개 영역 평균이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 내용을 담고 있지만, 원본 텍스트의 구체적인 사실과는 다르기 때문에 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 다만, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5912234511248298</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과(아동학과)의 경쟁률과 수능 4개 영역 등급 평균을 확인해보겠습니다.
+- **경쟁률**: 6.59 (현재 제공된 정보에서 가장 높은 경쟁률)
+- **수능 4개 영역 평균**: 3.12
+제가 알고 있는 정보로는 수능 4개 영역 평균이 3.12이고, 지원자의 환산등급이 4.16이라는 점을 고려하면, 지원자의 등급은 상대적으로 높습니다.
+하지만, 경쟁률이 매우 높기 때문에, 단순히 수능 점수만으로 합격 여부를 판단하기는 어렵습니다. 다른 요소들(학생부 교과성적, 면접 등)도 고려됩니다.
+따라서, 확실한 답변을 위해서는 동의대학교 입학처에 직접 문의하거나, 제공된 정보를 바탕으로 추정할 수 있습니다. 
+추가적으로, 동의대학교의 전형요소 반영비율을 확인해보면, 대부분의 경우 학생부 교과성적은 0%로 반영되지 않으므로, 주로 수능 점수가 중요한 요인입니다.
+결론적으로, 지원자의 환산등급이 상대적으로 높기 때문에, 충분히 합격 가능성은 있지만, 확실한 답변을 위해서는 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문 내용을 완전히 무시하고, 정시 지원에 대한 정보를 제공하고 있습니다. 이는 명백한 사실 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명시했으나, 생성된 응답은 정시 지원을 위한 조건을 설명하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 정시 지원에 대한 정보는 원문에서 질문한 내용과 전혀 맞지 않습니다. 원문은 정시 지원 가능성에 대한 질문이었으나, 응답은 그와는 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 질문의 맥락을 완전히 벗어나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5030862528882193</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 해당 학과의 경쟁률과 평균 수능 점수를 참고해야 합니다. 
+소프트웨어융합학과의 경우, 지원 인원이 30명이고 모집인원은 15명으로, 경쟁률이 약 2배입니다. 이에 따라 평균 수능 등급을 살펴보면:
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 450.71
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+따라서, 소프트웨어융합학과를 정시로 지원하려면, 최소한 **수능 4개 영역 등급**이 4.5 이상이고, **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 330.11 이상 받아야 합니다.
+하지만 이는 단순 참고치이며, 실제 경쟁률과 모집인원에 따라 요구되는 점수가 상대적으로 높아질 수 있으므로, 최신 정보와 정확한 요구사항을 확인하는 것이 중요합니다. 더 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접에서의 질문 내용과 서류 평가의 중요성을 잘 설명하고 있으며, '세특'에 대한 구체적인 서류 준비 사항도 포함되어 있습니다. 그러나 원문에서 언급된 서류 평가의 구체적인 항목(공동체 역량, 학업 역량, 전공 적합성)에 대한 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 면접과 서류 평가의 중요성을 강조하고 있습니다. 다만, 원문에서 명시된 평가 기준에 대한 구체적인 언급이 부족하여 완전한 일관성은 없지만, 전반적으로 일관된 내용을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 면접 준비와 서류 준비에 대한 구체적인 정보를 제공하고 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다. 그러나 '세특'에 대한 설명이 원문과의 연결이 다소 약해 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원문에서 명시된 평가 기준에 대한 구체적인 언급이 부족하여 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 세부 사항에서 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 잘 이루어져 있으며, 적절한 맥락에서 정보를 전달하고 있습니다. 따라서 점수는 5로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4339786843870951</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접에서는 주로 지원동기, 학업역량, 전공적합성 등에 대한 질문이 나오므로, 이 부분들을 중심으로 답변을 준비하는 것이 중요합니다. 그러나 면접뿐만 아니라 서류평가에서도 중요한 역할을 하는 '세특' 내용은 따로 준비해야 합니다.
+세특(세부 능력 및 특기사항)은 학업역량과 전공적합성에 대한 증빙 자료를 포함하므로, 다음과 같은 서류가 필요합니다:
+1. **창의적 체험활동**: 동아리 활동, 진로 탐색 활동 등에 참여한 증빙자료 (예: 활동 기록부, 사진, 보고서 등).
+2. **학업역량**: 수학, 과학 등의 학업 성취를 증명할 수 있는 자료 (예: 내신 점수, 시험 결과, 프로젝트 보고서 등).
+3. **전공적합성**: 지원하는 전공과 관련된 활동이나 경험을 증명할 수 있는 자료 (예: 관련 동아리 활동, 프로젝트 참여 기록 등).
+이러한 서류들을 체계적으로 준비하고, 면접에서도 이 내용을 자연스럽게 연결시켜 답변하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보를 잘못 해석하고 있습니다. 원본 텍스트에서는 4.08의 성적이 최초합격자의 평균 등급인 4.12와 비교하여 약간 높은 수준이라고 언급하고 있지만, 생성된 응답은 4.08이 소프트웨어공학부에 합격하기 어려울 것이라고 잘못 결론짓고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 소프트웨어공학부에 대한 직접적인 데이터가 없다고 언급하면서도 다른 학과의 데이터를 통해 추론하려고 합니다. 이는 원본 텍스트의 내용과 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 질문에 대한 답변을 시도하고 있지만, 다른 학과의 성적 데이터를 언급함으로써 주제에서 벗어나고 있습니다. 따라서 관련성은 있지만, 주제와의 연결이 약합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 소프트웨어공학부에 대한 결론이 다른 학과의 데이터에 기반하고 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 해석하고 있으며, 4.08의 성적이 소프트웨어공학부에 합격하기 어려울 것이라는 주장은 사실과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7577573791000459</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 소프트웨어공학부에 대한 최초합격자의 성적 데이터를 확인해보겠습니다. 
+소프트웨어공학부는 해당 데이터에서 직접적으로 언급되지 않았습니다. 그러나, 동의대학교 인문사회과학대학 내 다른 학과들의 성적 데이터를 통해 추론할 수 있습니다.
+인문사회과학대학 중어중국학과의 경우, 평균 수능 4개 영역 등급이 5.21이며, 표준 편차가 0.33입니다. 이는 상당히 높은 성적을 요구하는 것을 의미합니다.
+반면에, 동의대학교 인문사회과학대학 아동학과의 경우, 평균 수능 4개 영역 등급이 6.51이며, 표준 편차가 0.95입니다. 이는 더 낮은 성적을 요구하는 것을 의미합니다.
+따라서, 정시 성적이 4.08인 경우, 동의대학교 소프트웨어공학부에 최초합격하기는 어려울 것으로 보입니다. 그러나, 다른 학과들에 대한 데이터를 통해 더 정확한 판단을 내릴 수 있습니다.
+만약 더 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 정보를 제공하지 않고, 소프트웨어공학부에 대한 정보로 변경되었습니다. 이는 원본 텍스트와의 일관성이 부족하며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보로 변경되었기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로 적절하지 않으며, 소프트웨어공학부에 대한 정보로 대체되었습니다. 그러나 일부 관련 정보가 포함되어 있어 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 대한 정보로 구성되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보로 대체되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트와의 관련성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6296670308149703</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)의 경우, 정시모집군 변경이 이루어졌습니다. 이전에는 "창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"로 분류되어 있었지만, 2024년에는 "소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"로 명칭이 변경되었습니다.
+현재 제공된 데이터는 각 학과별 지원 인원, 경쟁률 등에 대한 정보를 포함하고 있지만, 정확한 수능 4개 영역 평균 등급을 기준으로 한 입학 가능성 판단은 불가능합니다. 
+정시모집군 변경이 이루어진 소프트웨어공학부의 경우, 지원 자격과 평가 요소가 바뀌었으므로, 정확한 입학 가능성을 확인하려면 해당 학과의 2024년도 정시 모집요강을 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다. 
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적을 잘못 언급하고 있으며, 최초합격자와 최종등록자의 평균 등급에 대한 정보도 잘못 해석하고 있습니다. 따라서 사실관계가 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 평균 성적에 대한 언급이 원본과 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 분석을 제공하고 있지만, 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 명확하지만, 정보의 흐름이 매끄럽지 않고 논리적 연결이 부족한 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답에서 제공된 정보는 원본 텍스트와 비교했을 때 여러 가지 부정확한 내용이 포함되어 있습니다. 특히 평균 성적에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 사실관계와 일관성이 부족하여 품질이 낮습니다. 관련성은 어느 정도 있지만, 정확성과 일관성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 정보 전달이 명확합니다. 다만, 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6541600364718556</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 확률을 판단하기 위해서는 해당 대학과 전형 방식, 모집 인원 및 지원 인원 등을 고려해야 합니다.
+현재 제공된 정보를 바탕으로 분석해보겠습니다:
+1. **신소재공학과의 경쟁률**: 신소재공학과의 경우 4 이내로 최대선발 가능인원이 제시되어 있습니다. 이는 모집 인원이 적고 지원 인원이 많지 않아서 경쟁률이 높을 수 있다는 것을 의미합니다.
+2. **신소재공학과의 지원 인원**: 신소재공학과에 대한 지원 인원 정보가 제공되지 않았습니다. 그러나 일반적으로 동일한 학과에서 4 이내로 모집인원이 제시되어 있는 경우, 지원 인원이 많을 가능성이 높습니다.
+3. **신소재공학과의 평균 성적**: 신소재공학과의 수능 4개 영역 등급의 평균은 4.18입니다. 이는 지원자의 평균 성적이 4.28이라는 점에서 경쟁률이 높을 가능성을 의미합니다.
+따라서, 4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 확률은 상대적으로 낮다고 판단됩니다. 그러나 이는 단순히 평균 성적만으로 결정되는 것이 아니라, 지원 인원 및 경쟁률 등 다양한 요인들이 복합적으로 작용하기 때문에 정확한 예측을 내리기는 어렵습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요하지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 자기소개서를 선택적으로 작성하는 것이 좋다는 추가적인 정보는 원문에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 자기소개서를 작성하는 것이 좋다는 주장은 원문에서 언급되지 않았습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 일반학생전형에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 주제가 약간 분산되는 경향이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 자기소개서 작성의 필요성에 대한 주장은 원문과 다소 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 추가 정보는 원문과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.625704531499329</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 일반학생전형에서는 자기소개서 작성은 필수 항목이 아닙니다. 수능 점수와 교과 성적, 학생부 기록 등이 주요 평가 요인으로 작용합니다.
+하지만 자기소개서를 작성하는 것이 지원자의 개인적인 경험과 특성을 더 잘 전달할 수 있으며, 심사위원에게 긍정적인 인상을 줄 수 있으므로 선택적으로 작성해 보는 것도 좋을 것 같습니다. 만약 작성하려고 한다면, 지원자의 학업 태도, 성격, 미래 계획 등과 관련된 내용을 포함시켜 보세요.
+자기소개서가 필요하지 않다면, 주요 평가 요인인 수능 점수와 교과 성적, 학생부 기록 등을 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하며, 4.5라는 점수가 다군 수능에서의 성적이라는 점을 언급하고 있습니다. 그러나, 원문에서 제공된 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 일부 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 추가 모집에 대한 정보를 제공하고 있으며, 수능 점수와 관련된 사항을 잘 설명하고 있습니다. 다만, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 문장이 더 매끄럽게 연결될 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 세부사항이 누락되어 있어 완전한 정확성에는 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 담고 있습니다. 다만, 원문에서 강조된 특정 세부사항이 부족하여 약간의 의미적 부합성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해에는 다소 부족할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6942020392147545</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 다군 수능(일반학생전형)에서의 성적입니다. 추가모집에 대한 확실한 답변을 드리기 위해서는 모집단위별로 정확한 정보가 필요합니다.
+다군 수능(일반학생전형)의 경우, 수능 점수만으로는 특정 모집단위에 들어갈 수 있는지 알 수 없습니다. 동의대학교에서 모집하는 단과대학 및 계열별 모집인원을 확인해야 합니다. 또한, 추가모집의 경우에는 일반적으로 정원 외 모집이 이루어질 수 있으나, 이 역시 모집단위별로 다르게 진행될 수 있습니다.
+따라서, 다음과 같은 절차를 통해 답변을 얻을 수 있을 것입니다:
+1. 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 추가모집에 대한 정보를 확인합니다.
+2. 모집단위별로 정원 외 모집이 이루어질 경우, 해당 단과대학 및 계열의 모집인원을 파악합니다.
+3. 자신의 수능 점수와 학생부 종합 평가 결과 등을 고려하여 적합한 모집단위를 선택합니다.
+만약 추가모집에 대한 자세한 정보를 원하시면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 정시 등급 기준에 대한 직접적인 정보를 제공하지 않지만, 웹사이트를 통해 확인할 수 있다는 점에서 사실에 부합합니다. 그러나 원본 텍스트의 구체적인 평균 등급 정보는 포함되어 있지 않아 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 직접적인 정시 등급 기준을 확인할 수 없다는 점에서 일관성이 떨어집니다. 원본 텍스트는 평균 등급에 대한 구체적인 정보를 제공하고 있으므로, 이와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 신소재공학부의 정시 등급 기준에 대한 질문에 적절하게 대응하고 있으며, 관련된 웹사이트를 안내하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 정보를 제공하고 있으나, 구체적인 수치나 평균 등급에 대한 언급이 없기 때문에 완전한 정확성은 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으며, 정보의 전달이 적절합니다. 다만, 원본의 구체적인 수치 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6370809517459387</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 등급 기준을 직접 확인할 수 없습니다. 정시 등급 기준은 매년 변경될 수 있으며, 특정 학과의 정시 등급 기준을 알고 싶다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 최신 정보를 확인해 보세요. 해당 사이트에서 동의대학교의 정시 모집 정보를 찾아보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과 귀하의 점수인 447점을 언급하고 있지만, 합격 가능성에 대한 주장은 다소 불확실성을 강조하고 있습니다. 이는 원문에서 제시된 "합격 가능성이 매우 높다"는 주장과 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, 합격 가능성에 대한 해석이 다릅니다. 원문은 높은 점수로 인해 합격 가능성이 높다고 명시했으나, 생성된 응답은 여러 요소를 고려해야 한다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대한 다양한 요소를 제시하고 있어 관련성이 높습니다. 그러나 원문에서 강조한 합격 가능성에 대한 직접적인 답변이 부족하여 점수를 약간 낮게 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있습니다. 그러나 각 요소 간의 연결이 조금 더 명확했으면 좋았을 것 같습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다소 상충하는 내용을 포함하고 있습니다. 특히, 합격 가능성에 대한 해석이 원문과 다르게 제시되어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있으며, 의미적으로 적절합니다. 그러나 원문에서의 긍정적인 해석과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.5500465045106866</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동일한 점수인 447점을 받더라도 작년에 비해 최종 합격 가능성이 높아지지는 않을 것입니다. 하지만 다음과 같은 요소들이 합격 가능성에 영향을 미칠 수 있습니다:
+1. **경쟁률**: 작년과 현재의 경쟁률이 어떻게 다른지 확인해야 합니다. 경쟁률이 낮아진다면 합격 가능성은 높아질 수 있지만, 여전히 높은 경쟁률이라면 큰 변화는 없을 것입니다.
+2. **지원 인원 및 모집인원**: 작년과 현재의 지원 인원 및 모집인원이 어떻게 달라졌는지 확인해야 합니다. 지원 인원이 줄고 모집인원이 늘어난다면 합격 가능성은 높아질 수 있습니다.
+3. **전형 요소 평가**: 서류평가와 면접평가에서의 성적도 중요한 요소입니다. 작년과 현재의 평균 점수를 비교하여 전반적인 평가 결과가 어떻게 달라졌는지 확인해야 합니다.
+4. **개인 특성 및 활동**: 지원자의 개인 특성, 활동 경력 등이 합격 가능성에 영향을 미칠 수 있습니다. 이 부분은 서류평가와 면접평가에서 중요한 역할을 합니다.
+5. **전공적합성**: 지원자가 해당 전공과의 적합성을 얼마나 보여줄 수 있는지가 중요합니다. 이는 서류평가와 면접평가에서 평가됩니다.
+따라서, 작년에 비해 447점으로 환산된 점수로 합격 가능성은 있지만, 확실한 것은 아닙니다. 현재의 경쟁률과 지원 인원, 모집인원 등을 고려하여 최종적인 합격 가능성을 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 공식 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 신소재공학부의 최대 선발 가능 인원에 대한 정보가 원본 텍스트에 포함되어 있지 않으며, 성적에 대한 해석이 다소 다르게 나타나 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일관성을 유지하지만, 성적에 대한 해석과 입학 가능성에 대한 결론이 원본 텍스트와 상충하는 부분이 있습니다. 특히, 입학 가능성에 대한 판단이 다르게 나타나므로 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 일부 불필요한 세부사항이 포함되어 있어 주제와의 관련성이 약간 떨어집니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 부분에서 논리적 연결이 약간 부족할 수 있어 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적 해석과 관련된 부분에서 정확성이 떨어지는 경향이 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성, 일관성, 정확성에서 다소 부족한 점이 있어 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부사항에서 의미가 다소 왜곡될 수 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확하게 전달되고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6127761833705466</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이면, 정시 성적 산출 방법에 따라 4.1 ~ 4.2 정도의 점수가 나올 것으로 예상됩니다. 신소재공학부 일반학생전형의 모집인원과 최대선발 가능 인원을 확인해보겠습니다.
+신소재공학부의 경우, 다음과 같은 정보가 있습니다:
+- 단과대학: 공과대학
+- 계열: 공학
+- 모집단위: 신소재공학과
+- 최대선발 가능인원: 4 이내
+이 정보를 바탕으로 판단해보겠습니다.
+1. **성적 산출**: 4.3 등급대의 성적이면, 정시 성적 산출 방법에 따라 4.1 ~ 4.2 정도의 점수가 나올 것으로 예상됩니다.
+2. **모집인원 및 선발 가능 인원**: 신소재공학과는 최대선발 가능 인원이 4 이내입니다.
+3. **입학 가능성**: 성적이 4.1 ~ 4.2 정도면, 일반적으로는 충분히 입학할 수 있는 범위에 속합니다. 그러나 선발 가능한 인원이 4명 이내라는 점을 고려하면, 경쟁률이 높아서 입학 가능성은 어느 정도로 예상해야 할까요?
+- **경쟁률**: 신소재공학과의 경우, 일반적으로 많은 수험생들이 지원하므로 경쟁률이 높습니다. 따라서 성적이 4.1 ~ 4.2라면, 선발 가능한 인원보다 많은 수험생들이 입학을 희망하고 있으므로, 입학 가능성은 낮아 보입니다.
+- **추천**: 성적을 최대한 끌어올리는 것이 중요합니다. 만약 추가로 성적이 높아지면 더 좋은 결과를 얻을 수 있습니다. 또한 면접 준비와 서류 작성 등 다른 평가 영역에서도 경쟁력을 갖추는 것이 좋습니다.
+결론적으로, 현재의 성적 4.3등급대라면 신소재공학과에 입학하기는 어렵다고 판단됩니다. 그러나 추가로 성적이 높아지거나 면접 및 서류 평가에서 우수한 결과를 얻을 수 있다면, 조금 더 낮은 점수에서도 입학 가능성은 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 구체적인 점수와 등급에 대한 내용이 원본 텍스트와 일치하지 않습니다. 예를 들어, 국어, 수학, 영어의 구체적인 점수 기준이 원본에 명시된 평균 점수와 다릅니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 제공된 점수 기준이 원본의 평균 점수와 상충합니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 잘 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답의 점수 기준이 원본 텍스트의 평균 점수와 다르기 때문에 정확성이 떨어집니다. 원본의 구체적인 수치와 비교했을 때, 정확한 정보가 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서 다소 부족하여 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 맞춰져 있으며, 의미적으로도 적절합니다. 그러나 일부 세부 사항에서 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 정보가 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6810960208637036</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 인공지능학과는 수능 일반학생전형을 통해 지원할 수 있습니다. 이 전형에서 학생들은 국어, 수학, 영어 등 주요 과목의 성적이 중요하게 고려됩니다.
+수능 점수와 등급에 대한 정보를 제공하겠습니다:
+- **국어**: 139점 이상
+- **수학**: 107점 이상 (등급 5)
+- **영어**: 4.60 이상 (등급 8)
+이러한 성적을 기반으로 지원할 수 있습니다. 하지만, 실제 합격에 필요한 점수는 모집단위와 지원 인원 등 다양한 요인에 따라 변동될 수 있으므로, 최신 정보를 확인하는 것이 좋습니다.
+추가적으로, 동의대학교에서는 학생부 교과 성적도 고려합니다. 따라서, 국어, 수학, 영어 외에도 다른 과목에서도 좋은 성적을 유지하는 것이 유리할 것입니다.
+만약 더 자세한 정보나 지원 절차에 대한 도움이 필요하시다면, 동의대학교 입학처 웹사이트를 방문하여 확인해보시는 것을 추천드립니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 충원 합격 가능성에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 학과와 성적 기준에 대한 정보는 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 구체적인 학과와 성적에 대한 정보가 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 충원 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 학과 정보와 비교할 때 다소 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 충원 합격 가능성에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 데이터와 비교할 때 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 평균적인 품질을 보입니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제에 적합한 의미를 전달하고 있으며, 원본 텍스트의 맥락과 잘 맞습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 내용을 담고 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6048522783944698</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 모집단위별 경쟁률과 지원자 수를 고려할 때, 특정 학과에 대한 확정적인 충원 가능 여부는 정확한 정보를 제공하기 어렵습니다. 하지만 일반적으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합을 기준으로 경쟁률이 높은 학과에서는 5.27의 성적로 충원 가능성이 낮을 수 있습니다.
+예를 들어, 미디어커뮤니케이션학과는 5.60의 경쟁률을 보이고 지원 인원이 28명인 반면 모집 인원은 5명입니다. 이 경우 5.27의 성적로 충원 가능성이 낮다고 볼 수 있습니다.
+반대로, 경쟁률이 낮고 지원자 수가 적은 학과에서는 더 높은 점수를 요구하지 않을 수 있으므로 5.27의 성적로도 충원 가능성이 있을 수 있습니다.
+따라서, 특정 학과에 대한 충원 가능성은 해당 학과의 경쟁률, 지원자 수, 모집 인원 등을 종합적으로 고려해야 합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하지 않으며, 정시 성적 4.2가 평균보다 낮다고 잘못 언급하고 있습니다. 원본 텍스트에 따르면 4.2는 평균보다 높은 성적입니다. 또한, 평균 점수와 관련된 수치도 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 특히, 정시 성적 4.2가 평균보다 낮다고 언급한 부분은 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보를 제공하고 있으며, 지원자의 성적에 대한 논의도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 정시 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 성적에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6367142410674036</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부에 대한 정보를 보면, 지원 인원이 많고 경쟁률이 높습니다. 특히 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균 점수가 330.11이고, "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균 점수가 450.71입니다.
+당신이 정시 성적 4.2라면, 이는 평균보다 낮은 수준입니다. 그러나 동의대학교 소프트웨어공학부의 경우, 전형요소 반영비율을 보면 "학생부 교과": 0%, "출결": 0%, "서류": 0%, "면접": 0%, "실기": 70%, "수능": 30%로 수능 점수가 큰 비중을 차지하고 있습니다.
+따라서, 정시 성적 4.2는 낮은 점수이지만, 수능 점수가 높다면 합격 가능성은 있을 수 있습니다. 그러나 이는 매우 경쟁적인 분야이며, 다른 지원자들과의 비교에서 우위를 차지하기 위해서는 수능 점수가 높아야 합니다.
+결론적으로, 정시 성적 4.2로 동의대학교 소프트웨어공학부에 합격하는 것은 가능하지만 매우 어려울 것입니다. 수능 점수와 지원자의 전체적인 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보와 관련하여 부정확한 내용을 포함하고 있습니다. 원본 텍스트에서는 화학환경공학부의 영어 등급 평균이 4.82이고, 수능 4개 영역 등급 평균이 5.73이라고 명시되어 있습니다. 그러나 생성된 응답은 식품공학과에 대한 성적 산출 방법과 변환을 설명하고 있으며, 원본 텍스트의 핵심 정보를 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 화학환경공학부에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 식품공학과에 대한 성적 산출 방법을 설명하고 있어 주제가 일치하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 주제가 다소 벗어나 있습니다. 원본 텍스트는 화학환경공학부에 대한 합격 가능성을 다루고 있는 반면, 생성된 응답은 식품공학과에 대한 성적 산출 방법을 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 주제가 다르기 때문에 응답의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 성적 산출 방법과 관련된 정보가 원본 텍스트의 내용과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 주제의 일관성도 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 주제가 다르기 때문에 의미적으로 완전히 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제가 다르기 때문에 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.5788624468378658</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 주어졌을 때, 동의대학교 식품공학과(화학환경공학부)에 대한 정시 일반학생전형 가능성은 다음과 같이 판단됩니다.
+1. **성적 산출방법**: 
+   - 동의대학교는 나군(일반학생전형)으로 모집합니다.
+   - 나군의 성적 산출 방법은 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수"입니다.
+2. **성적 변환**:
+   - 국어: 104 (표준점수)
+   - 수학(미적분): 108 (표준점수)
+   - 영어: 4등급 (대략 65점으로 변환)
+   - 탐구: 물리Ⅰ과 화학Ⅰ의 표준점수를 합산합니다. 이 경우 각각 47점, 59점을 가정하면 106점이 됩니다.
+3. **총합계**:
+   - 총합계 = 104 + 108 + 65 + 106 = 383점
+4. **등급 변환**:
+   - 나군의 등급 변환 기준을 참조하면, 383점은 4등급에 해당합니다.
+5. **결론**:
+   - 동의대학교 식품공학과(화학환경공학부)는 나군에서 모집하며, 4등급이 필요합니다.
+   - 따라서 주어진 성적 3.92로는 충분히 가능합니다.
+따라서 주어진 성적이 4등급에 해당하므로 동의대학교 식품공학과(화학환경공학부)에 대한 정시 일반학생전형은 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 구체적인 정보를 제공하지 않고, 최저 기준 점수와 성적 분포에 대한 정보가 필요하다고 언급하고 있습니다. 그러나 원본 텍스트에서는 귀하의 성적이 합격 가능성이 높다고 명시하고 있어, 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 귀하의 성적이 합격 가능성이 높다고 판단했지만, 생성된 응답은 합격 가능성을 판단하기 어렵다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 필요한 정보가 부족하다는 점에서 완전한 관련성을 가지지 않습니다. 원본 텍스트의 결론을 무시하고 추가 정보를 요구하는 방식으로 진행되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 결론과 상충하여 일관된 메시지를 전달하지 못하고 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 귀하의 성적이 합격 가능성이 높다는 정보를 무시하고 있습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 결론을 무시하고 추가 정보를 요구하는 방식으로 진행되어 의미가 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7129611772690196</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 최저 기준 정보가 제공되지 않았습니다. 따라서, 정시 성적이 4.25인 경우 해당 학과와 전형에 합격할 가능성을 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. **2024학년도 동의대학교 화학환경공학부 수능 일반학생전형의 최저 기준 점수**를 확인해야 합니다.
+2. **2024학년도 동의대학교 화학환경공학부 수능 일반학생전형에 지원한 학생들의 성적 분포**를 파악해야 합니다.
+위 정보가 제공되지 않았기 때문에, 정시 성적이 4.25인 경우 해당 전형에서 합격할 가능성을 판단하기 어렵습니다. **"https://ipsi.deu.ac.kr/main.do"** 웹사이트를 방문하여 최신의 학과별 수능 일반학생전형의 최저 기준 점수와 지원자의 성적 분포 등을 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 영화학과의 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 성적에 대한 구체적인 내용은 포함되어 있지 않다. 또한, 지원 인원과 모집 인원에 대한 정보는 원본 텍스트와 관련이 없으며, 이로 인해 사실성 점수가 낮아졌다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족하다. 원본 텍스트는 성적에 대한 정보와 합격 가능성에 대한 판단을 제공하는 반면, 생성된 응답은 경쟁률에 대한 정보로 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 영화학과에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 성적과 합격 가능성에 대한 질문에 직접적으로 답하지 않고 있다. 따라서 관련성 점수가 중간 정도로 평가된다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 유창성 점수는 아니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어진다. 경쟁률에 대한 정보가 갑작스럽게 등장하여 응답의 일관성이 저하된다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 지원 인원과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트의 성적 정보와 관련된 정확한 판단을 제공하지 않는다. 따라서 정확성 점수는 중간 정도로 평가된다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 사실성, 일관성, 관련성에서 부족함이 있지만, 유창성과 정확성에서 어느 정도의 점수를 얻었다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과는 다소 동떨어진 내용을 다루고 있어 의미적으로 적절하지 않은 부분이 있다. 따라서 의미 적합성 점수는 중간 정도로 평가된다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있다. 그러나 일부 문장이 복잡할 수 있어 완벽한 이해 가능성 점수는 아니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6195221778851238</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>2024학년도 영화학과의 경쟁률을 확인해보겠습니다. 제공된 정보를 바탕으로, 영화학과는 "ICT융합공과대학"에 속하며, 해당 모집단위의 지원 인원은 1명이고, 모집 인원은 3명입니다.
+- 지원 인원: 1명
+- 모집 인원: 3명
+이 정보만으로는 정확한 경쟁률을 계산하기 어렵습니다. 하지만, 제공된 데이터를 바탕으로 일반적인 경쟁률을 예측해볼 수 있습니다. 영화학과의 경우, 지원 인원이 매우 적은 편이라 경쟁률이 낮아 보입니다.
+- 지원 인원: 1명
+- 모집 인원: 3명
+따라서, 지원 인원이 1명이고 모집 인원이 3명이라는 점을 고려하면, 합격 가능성은 높다고 볼 수 있습니다. 하지만, 정확한 합격 가능성을 판단하기 위해서는 해당 대학의 최종 합격 기준과 경쟁률 등을 확인해야 합니다.
+제공된 정보를 바탕으로, 4.2정도의 성적을 가지고 영화학과에 지원한다면, 합격 가능성은 높다고 예측할 수 있습니다. 하지만, 정확한 판단을 위해서는 해당 대학의 최종 합격 기준과 경쟁률 등을 확인해보시기 바랍니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조하시거나, 관리팀에 문의주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 모든 단계가 올바르게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 면접 절차에 대한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9604203084687974</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 면접을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
